--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Report" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>Task Cost</t>
   </si>
@@ -170,12 +170,18 @@
   </si>
   <si>
     <t>Per Person</t>
+  </si>
+  <si>
+    <t>Messing around with dashboard and charts</t>
+  </si>
+  <si>
+    <t>Experimenting creation of time card</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
@@ -489,7 +495,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -606,6 +612,9 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -613,49 +622,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF70AD47"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -716,7 +683,6 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Overview"/>
-      <sheetName val="Weekly Meeting Costs"/>
       <sheetName val="CDR Project Planner"/>
       <sheetName val="Bach Planner"/>
       <sheetName val="Brandon Planner"/>
@@ -734,57 +700,43 @@
       <sheetName val="Cody Cost"/>
       <sheetName val="Peter Cost"/>
       <sheetName val="Zack Cost"/>
+      <sheetName val="Weekly Meeting Costs"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1">
         <row r="1">
           <cell r="C1">
             <v>100</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1">
         <row r="62">
           <cell r="O62">
-            <v>1575</v>
+            <v>12</v>
           </cell>
           <cell r="P62">
-            <v>1450</v>
-          </cell>
-          <cell r="Q62">
-            <v>250</v>
-          </cell>
-          <cell r="R62">
-            <v>750</v>
-          </cell>
-          <cell r="S62">
-            <v>550</v>
-          </cell>
-          <cell r="T62">
-            <v>1200</v>
-          </cell>
-          <cell r="AC62">
             <v>57.75</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1080,25 +1032,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="40" t="s">
         <v>50</v>
@@ -1112,7 +1064,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="39"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>49</v>
       </c>
@@ -1144,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="33">
         <v>43135</v>
       </c>
@@ -1165,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>43137</v>
       </c>
@@ -1188,7 +1140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>43144</v>
       </c>
@@ -1211,7 +1163,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>43153</v>
       </c>
@@ -1238,7 +1190,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43153</v>
       </c>
@@ -1261,7 +1213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43153</v>
       </c>
@@ -1286,7 +1238,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43153</v>
       </c>
@@ -1309,7 +1261,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43155</v>
       </c>
@@ -1332,7 +1284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43157</v>
       </c>
@@ -1355,7 +1307,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>43157</v>
       </c>
@@ -1378,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>43158</v>
       </c>
@@ -1403,7 +1355,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>43158</v>
       </c>
@@ -1426,7 +1378,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>43159</v>
       </c>
@@ -1449,7 +1401,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>43159</v>
       </c>
@@ -1472,7 +1424,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>43159</v>
       </c>
@@ -1495,7 +1447,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>43160</v>
       </c>
@@ -1518,7 +1470,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>43160</v>
       </c>
@@ -1541,7 +1493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>43164</v>
       </c>
@@ -1564,7 +1516,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>43165</v>
       </c>
@@ -1587,7 +1539,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>43165</v>
       </c>
@@ -1610,7 +1562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>43165</v>
       </c>
@@ -1635,7 +1587,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>43166</v>
       </c>
@@ -1658,7 +1610,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>43166</v>
       </c>
@@ -1681,7 +1633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>43167</v>
       </c>
@@ -1704,7 +1656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>43172</v>
       </c>
@@ -1727,7 +1679,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>43172</v>
       </c>
@@ -1750,7 +1702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>43173</v>
       </c>
@@ -1773,7 +1725,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>43173</v>
       </c>
@@ -1796,7 +1748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>43174</v>
       </c>
@@ -1819,7 +1771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>43176</v>
       </c>
@@ -1842,7 +1794,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>43177</v>
       </c>
@@ -1865,7 +1817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>43179</v>
       </c>
@@ -1888,7 +1840,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>43179</v>
       </c>
@@ -1911,7 +1863,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>43179</v>
       </c>
@@ -1934,7 +1886,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>43180</v>
       </c>
@@ -1957,7 +1909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>43180</v>
       </c>
@@ -1980,7 +1932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>43180</v>
       </c>
@@ -2003,7 +1955,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>43180</v>
       </c>
@@ -2026,7 +1978,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>43180</v>
       </c>
@@ -2049,7 +2001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>43181</v>
       </c>
@@ -2072,7 +2024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>43183</v>
       </c>
@@ -2095,7 +2047,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43185</v>
       </c>
@@ -2118,7 +2070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>43186</v>
       </c>
@@ -2141,7 +2093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>43187</v>
       </c>
@@ -2164,11 +2116,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="12"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>43192</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="D47" s="12">
+        <v>1</v>
+      </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
@@ -2176,14 +2136,22 @@
       <c r="I47" s="12"/>
       <c r="J47" s="11">
         <f>SUM(D47:I47)*[1]Overview!$C$1*C47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>43194</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="13">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>1</v>
+      </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
@@ -2191,10 +2159,10 @@
       <c r="I48" s="12"/>
       <c r="J48" s="11">
         <f>SUM(D48:I48)*[1]Overview!$C$1*C48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="14"/>
       <c r="C49" s="13"/>
@@ -2209,7 +2177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="14"/>
       <c r="C50" s="13"/>
@@ -2224,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="14"/>
       <c r="C51" s="13"/>
@@ -2239,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
       <c r="B52" s="14"/>
       <c r="C52" s="13"/>
@@ -2254,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="14"/>
       <c r="C53" s="13"/>
@@ -2269,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="14"/>
       <c r="C54" s="13"/>
@@ -2284,7 +2252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="14"/>
       <c r="C55" s="13"/>
@@ -2299,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="14"/>
       <c r="C56" s="13"/>
@@ -2314,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="14"/>
       <c r="C57" s="13"/>
@@ -2329,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="14"/>
       <c r="C58" s="13"/>
@@ -2344,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="14"/>
       <c r="C59" s="13"/>
@@ -2359,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="14"/>
       <c r="C60" s="13"/>
@@ -2374,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="14"/>
       <c r="C61" s="13"/>
@@ -2389,45 +2357,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="10"/>
       <c r="B62" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="8">
         <f>'[1]Burn Report'!AC62</f>
-        <v>57.75</v>
+        <v>0</v>
       </c>
       <c r="D62" s="7">
         <f>'[1]Burn Report'!$O$62</f>
-        <v>1575</v>
+        <v>12</v>
       </c>
       <c r="E62" s="7">
         <f>'[1]Burn Report'!$P$62</f>
-        <v>1450</v>
+        <v>57.75</v>
       </c>
       <c r="F62" s="7">
         <f>'[1]Burn Report'!$Q$62</f>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G62" s="7">
         <f>'[1]Burn Report'!$R$62</f>
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="H62" s="7">
         <f>'[1]Burn Report'!$S$62</f>
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="I62" s="7">
         <f>'[1]Burn Report'!$T$62</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="J62" s="6">
         <f>SUM(J4:J45)</f>
         <v>5675</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="4"/>
       <c r="C63" s="3" t="s">

--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t xml:space="preserve">Per Person</t>
   </si>
@@ -64,10 +64,22 @@
     <t xml:space="preserve">[Ignore] For Chart Formatting</t>
   </si>
   <si>
+    <t xml:space="preserve">Pre PDR Cost</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meeting Planning</t>
   </si>
   <si>
+    <t xml:space="preserve">Post PDR Cost</t>
+  </si>
+  <si>
     <t xml:space="preserve">Derive Requirements for Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre PDR Hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post PDR Hours</t>
   </si>
   <si>
     <t xml:space="preserve">Design GUI and brainstorm ideas for functionality</t>
@@ -76,7 +88,13 @@
     <t xml:space="preserve">Gather hardware manuals along with examples for hardware implementations</t>
   </si>
   <si>
+    <t xml:space="preserve">Total Cost</t>
+  </si>
+  <si>
     <t xml:space="preserve">Block diagram for whole system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Hours</t>
   </si>
   <si>
     <t xml:space="preserve">Came up with requirements for system and modules</t>
@@ -166,6 +184,12 @@
     <t xml:space="preserve">Finalized PP</t>
   </si>
   <si>
+    <t xml:space="preserve">Total PDR Costs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total PDR hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">Researched localization and other algorithms</t>
   </si>
   <si>
@@ -187,19 +211,22 @@
     <t xml:space="preserve">Remapped Python GUI memory and verified functionality</t>
   </si>
   <si>
+    <t xml:space="preserve">Wrote functional test for Professor’s system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researched OpenCV and developed camera calibration script</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cleaned up Metrics, polished up burn reports &amp; discarding time card</t>
   </si>
   <si>
     <t xml:space="preserve">Wrote VHDL for encoder reader and counter.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wrote functional test for Professor’s system</t>
+    <t xml:space="preserve">Familiarize IMU and wrote script integrating turn and IMU</t>
   </si>
   <si>
-    <t xml:space="preserve">Researched OpenCV and developed camera calibration script</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Familiarize IMU and wrote script integrating turn and IMU</t>
+    <t xml:space="preserve">Total CDR Costs</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -209,15 +236,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
-    <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
-    <numFmt numFmtId="169" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="170" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -250,6 +278,21 @@
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -424,7 +467,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -445,7 +488,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -456,8 +501,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -534,6 +582,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -554,7 +610,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,12 +634,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -594,12 +658,28 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="13" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -614,16 +694,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="18" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -639,7 +715,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
@@ -648,13 +724,36 @@
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
     <cellStyle name="Explanatory Text 2" xfId="20" builtinId="53" customBuiltin="true"/>
     <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="22" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF70AD47"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="thin"/>
+        <right style="thin"/>
+        <top style="thin"/>
+        <bottom style="thin"/>
+        <diagonal/>
+      </border>
     </dxf>
   </dxfs>
   <colors>
@@ -674,7 +773,7 @@
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
@@ -725,34 +824,50 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA63"/>
+  <dimension ref="A1:AP84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B35" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topRight" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="16" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="19" min="19" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="21" min="21" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="16" style="0" width="8.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="19" min="19" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="21" min="21" style="0" width="6.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="22" min="22" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="23" min="23" style="0" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="24" min="24" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="27" min="25" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="28" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="23" min="23" style="0" width="8.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="24" min="24" style="0" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="26" min="25" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="27" min="27" style="0" width="17.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="29" min="29" style="0" width="21.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="31" min="30" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="32" min="32" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="34" min="33" style="0" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="35" min="35" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="7.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="6.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="5.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="43" style="0" width="20.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -786,7 +901,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -857,8 +972,32 @@
         <v>11</v>
       </c>
       <c r="AA2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AD2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="n">
         <v>43135</v>
       </c>
@@ -894,25 +1033,52 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
       <c r="AA3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
+      <c r="AC3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD3" s="20" t="n">
+        <f aca="false">SUM(M3:M42)</f>
+        <v>1275</v>
+      </c>
+      <c r="AE3" s="20" t="n">
+        <f aca="false">SUM(N3:N42)</f>
+        <v>1450</v>
+      </c>
+      <c r="AF3" s="20" t="n">
+        <f aca="false">SUM(O3:O42)</f>
+        <v>250</v>
+      </c>
+      <c r="AG3" s="20" t="n">
+        <f aca="false">SUM(P3:P42)</f>
+        <v>750</v>
+      </c>
+      <c r="AH3" s="20" t="n">
+        <f aca="false">SUM(Q3:Q42)</f>
+        <v>550</v>
+      </c>
+      <c r="AI3" s="20" t="n">
+        <f aca="false">SUM(R3:R42)</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="n">
         <v>43137</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="21" t="n">
+      <c r="B4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="D4" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
       <c r="J4" s="18" t="n">
         <f aca="false">SUM(D4:I4)*100*C4</f>
         <v>50</v>
@@ -944,50 +1110,77 @@
       </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="24" t="n">
+      <c r="U4" s="26" t="n">
         <f aca="false">IF(D4=1,$C4,0)</f>
         <v>0.5</v>
       </c>
-      <c r="V4" s="24" t="n">
+      <c r="V4" s="26" t="n">
         <f aca="false">IF(E4=1,$C4,0)</f>
         <v>0</v>
       </c>
-      <c r="W4" s="24" t="n">
+      <c r="W4" s="26" t="n">
         <f aca="false">IF(F4=1,$C4,0)</f>
         <v>0</v>
       </c>
-      <c r="X4" s="24" t="n">
+      <c r="X4" s="26" t="n">
         <f aca="false">IF(G4=1,$C4,0)</f>
         <v>0</v>
       </c>
-      <c r="Y4" s="24" t="n">
+      <c r="Y4" s="26" t="n">
         <f aca="false">IF(H4=1,$C4,0)</f>
         <v>0</v>
       </c>
-      <c r="Z4" s="24" t="n">
+      <c r="Z4" s="26" t="n">
         <f aca="false">IF(I4=1,$C4,0)</f>
         <v>0</v>
       </c>
       <c r="AA4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="n">
+      <c r="AC4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="20" t="n">
+        <f aca="false">M83-AD3</f>
+        <v>650</v>
+      </c>
+      <c r="AE4" s="20" t="n">
+        <f aca="false">N83-AE3</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="20" t="n">
+        <f aca="false">O83-AF3</f>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="20" t="n">
+        <f aca="false">P83-AG3</f>
+        <v>50</v>
+      </c>
+      <c r="AH4" s="20" t="n">
+        <f aca="false">Q83-AH3</f>
+        <v>100</v>
+      </c>
+      <c r="AI4" s="20" t="n">
+        <f aca="false">R83-AI3</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="27" t="n">
         <v>43144</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="27" t="n">
+      <c r="B5" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="D5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
       <c r="J5" s="18" t="n">
         <f aca="false">SUM(D5:I5)*100*C5</f>
         <v>50</v>
@@ -1019,54 +1212,54 @@
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="24" t="n">
+      <c r="U5" s="26" t="n">
         <f aca="false">IF(D5=1,$C5,0)</f>
         <v>0.5</v>
       </c>
-      <c r="V5" s="24" t="n">
+      <c r="V5" s="26" t="n">
         <f aca="false">IF(E5=1,$C5,0)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="24" t="n">
+      <c r="W5" s="26" t="n">
         <f aca="false">IF(F5=1,$C5,0)</f>
         <v>0</v>
       </c>
-      <c r="X5" s="24" t="n">
+      <c r="X5" s="26" t="n">
         <f aca="false">IF(G5=1,$C5,0)</f>
         <v>0</v>
       </c>
-      <c r="Y5" s="24" t="n">
+      <c r="Y5" s="26" t="n">
         <f aca="false">IF(H5=1,$C5,0)</f>
         <v>0</v>
       </c>
-      <c r="Z5" s="24" t="n">
+      <c r="Z5" s="26" t="n">
         <f aca="false">IF(I5=1,$C5,0)</f>
         <v>0</v>
       </c>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="n">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="n">
         <v>43153</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="27" t="n">
+      <c r="B6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="18" t="n">
         <f aca="false">SUM(D6:I6)*100*C6</f>
         <v>600</v>
@@ -1098,50 +1291,77 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="24" t="n">
+      <c r="U6" s="26" t="n">
         <f aca="false">IF(D6=1,$C6,0)</f>
         <v>0</v>
       </c>
-      <c r="V6" s="24" t="n">
+      <c r="V6" s="26" t="n">
         <f aca="false">IF(E6=1,$C6,0)</f>
         <v>2</v>
       </c>
-      <c r="W6" s="24" t="n">
+      <c r="W6" s="26" t="n">
         <f aca="false">IF(F6=1,$C6,0)</f>
         <v>2</v>
       </c>
-      <c r="X6" s="24" t="n">
+      <c r="X6" s="26" t="n">
         <f aca="false">IF(G6=1,$C6,0)</f>
         <v>2</v>
       </c>
-      <c r="Y6" s="24" t="n">
+      <c r="Y6" s="26" t="n">
         <f aca="false">IF(H6=1,$C6,0)</f>
         <v>0</v>
       </c>
-      <c r="Z6" s="24" t="n">
+      <c r="Z6" s="26" t="n">
         <f aca="false">IF(I6=1,$C6,0)</f>
         <v>0</v>
       </c>
       <c r="AA6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+      <c r="AC6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" s="32" t="n">
+        <f aca="false">SUM(U3:U42)</f>
+        <v>12.75</v>
+      </c>
+      <c r="AE6" s="32" t="n">
+        <f aca="false">SUM(V3:V42)</f>
+        <v>14.5</v>
+      </c>
+      <c r="AF6" s="32" t="n">
+        <f aca="false">SUM(W3:W42)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AG6" s="32" t="n">
+        <f aca="false">SUM(X3:X42)</f>
+        <v>7.5</v>
+      </c>
+      <c r="AH6" s="32" t="n">
+        <f aca="false">SUM(Y3:Y42)</f>
+        <v>5.5</v>
+      </c>
+      <c r="AI6" s="32" t="n">
+        <f aca="false">SUM(Z3:Z42)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="27" t="n">
         <v>43153</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="B7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
       <c r="J7" s="18" t="n">
         <f aca="false">SUM(D7:I7)*100*C7</f>
         <v>100</v>
@@ -1173,50 +1393,77 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="24" t="n">
+      <c r="U7" s="26" t="n">
         <f aca="false">IF(D7=1,$C7,0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="24" t="n">
+      <c r="V7" s="26" t="n">
         <f aca="false">IF(E7=1,$C7,0)</f>
         <v>1</v>
       </c>
-      <c r="W7" s="24" t="n">
+      <c r="W7" s="26" t="n">
         <f aca="false">IF(F7=1,$C7,0)</f>
         <v>0</v>
       </c>
-      <c r="X7" s="24" t="n">
+      <c r="X7" s="26" t="n">
         <f aca="false">IF(G7=1,$C7,0)</f>
         <v>0</v>
       </c>
-      <c r="Y7" s="24" t="n">
+      <c r="Y7" s="26" t="n">
         <f aca="false">IF(H7=1,$C7,0)</f>
         <v>0</v>
       </c>
-      <c r="Z7" s="24" t="n">
+      <c r="Z7" s="26" t="n">
         <f aca="false">IF(I7=1,$C7,0)</f>
         <v>0</v>
       </c>
       <c r="AA7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+      <c r="AC7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" s="32" t="n">
+        <f aca="false">U83-AD6</f>
+        <v>6.5</v>
+      </c>
+      <c r="AE7" s="32" t="n">
+        <f aca="false">V83-AE6</f>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="32" t="n">
+        <f aca="false">W83-AF6</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="32" t="n">
+        <f aca="false">X83-AG6</f>
+        <v>0.5</v>
+      </c>
+      <c r="AH7" s="32" t="n">
+        <f aca="false">Y83-AH6</f>
+        <v>1</v>
+      </c>
+      <c r="AI7" s="32" t="n">
+        <f aca="false">Z83-AI6</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="27" t="n">
         <v>43153</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28" t="n">
+      <c r="B8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="18" t="n">
@@ -1250,50 +1497,50 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
-      <c r="U8" s="24" t="n">
+      <c r="U8" s="26" t="n">
         <f aca="false">IF(D8=1,$C8,0)</f>
         <v>0</v>
       </c>
-      <c r="V8" s="24" t="n">
+      <c r="V8" s="26" t="n">
         <f aca="false">IF(E8=1,$C8,0)</f>
         <v>0</v>
       </c>
-      <c r="W8" s="24" t="n">
+      <c r="W8" s="26" t="n">
         <f aca="false">IF(F8=1,$C8,0)</f>
         <v>0</v>
       </c>
-      <c r="X8" s="24" t="n">
+      <c r="X8" s="26" t="n">
         <f aca="false">IF(G8=1,$C8,0)</f>
         <v>1</v>
       </c>
-      <c r="Y8" s="24" t="n">
+      <c r="Y8" s="26" t="n">
         <f aca="false">IF(H8=1,$C8,0)</f>
         <v>0</v>
       </c>
-      <c r="Z8" s="24" t="n">
+      <c r="Z8" s="26" t="n">
         <f aca="false">IF(I8=1,$C8,0)</f>
         <v>1</v>
       </c>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="n">
+    <row r="9" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="27" t="n">
         <v>43153</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="27" t="n">
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
       <c r="J9" s="18" t="n">
         <f aca="false">SUM(D9:I9)*100*C9</f>
         <v>200</v>
@@ -1325,50 +1572,77 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="24" t="n">
+      <c r="U9" s="26" t="n">
         <f aca="false">IF(D9=1,$C9,0)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="24" t="n">
+      <c r="V9" s="26" t="n">
         <f aca="false">IF(E9=1,$C9,0)</f>
         <v>2</v>
       </c>
-      <c r="W9" s="24" t="n">
+      <c r="W9" s="26" t="n">
         <f aca="false">IF(F9=1,$C9,0)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="24" t="n">
+      <c r="X9" s="26" t="n">
         <f aca="false">IF(G9=1,$C9,0)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="24" t="n">
+      <c r="Y9" s="26" t="n">
         <f aca="false">IF(H9=1,$C9,0)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="24" t="n">
+      <c r="Z9" s="26" t="n">
         <f aca="false">IF(I9=1,$C9,0)</f>
         <v>0</v>
       </c>
       <c r="AA9" s="3"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="n">
+      <c r="AC9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="20" t="n">
+        <f aca="false">SUM(AD3+AD4)</f>
+        <v>1925</v>
+      </c>
+      <c r="AE9" s="20" t="n">
+        <f aca="false">SUM(AE3+AE4)</f>
+        <v>1450</v>
+      </c>
+      <c r="AF9" s="20" t="n">
+        <f aca="false">SUM(AF3+AF4)</f>
+        <v>250</v>
+      </c>
+      <c r="AG9" s="20" t="n">
+        <f aca="false">SUM(AG3+AG4)</f>
+        <v>800</v>
+      </c>
+      <c r="AH9" s="20" t="n">
+        <f aca="false">SUM(AH3+AH4)</f>
+        <v>650</v>
+      </c>
+      <c r="AI9" s="20" t="n">
+        <f aca="false">SUM(AI3+AI4)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27" t="n">
         <v>43155</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="28"/>
+      <c r="B10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="30"/>
       <c r="J10" s="18" t="n">
         <f aca="false">SUM(D10:I10)*100*C10</f>
         <v>100</v>
@@ -1400,50 +1674,77 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
-      <c r="U10" s="24" t="n">
+      <c r="U10" s="26" t="n">
         <f aca="false">IF(D10=1,$C10,0)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="24" t="n">
+      <c r="V10" s="26" t="n">
         <f aca="false">IF(E10=1,$C10,0)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="24" t="n">
+      <c r="W10" s="26" t="n">
         <f aca="false">IF(F10=1,$C10,0)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="24" t="n">
+      <c r="X10" s="26" t="n">
         <f aca="false">IF(G10=1,$C10,0)</f>
         <v>0</v>
       </c>
-      <c r="Y10" s="24" t="n">
+      <c r="Y10" s="26" t="n">
         <f aca="false">IF(H10=1,$C10,0)</f>
         <v>1</v>
       </c>
-      <c r="Z10" s="24" t="n">
+      <c r="Z10" s="26" t="n">
         <f aca="false">IF(I10=1,$C10,0)</f>
         <v>0</v>
       </c>
       <c r="AA10" s="3"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="AC10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AD10" s="32" t="n">
+        <f aca="false">SUM(AD6+AD7)</f>
+        <v>19.25</v>
+      </c>
+      <c r="AE10" s="32" t="n">
+        <f aca="false">SUM(AE6+AE7)</f>
+        <v>14.5</v>
+      </c>
+      <c r="AF10" s="32" t="n">
+        <f aca="false">SUM(AF6+AF7)</f>
+        <v>2.5</v>
+      </c>
+      <c r="AG10" s="32" t="n">
+        <f aca="false">SUM(AG6+AG7)</f>
+        <v>8</v>
+      </c>
+      <c r="AH10" s="32" t="n">
+        <f aca="false">SUM(AH6+AH7)</f>
+        <v>6.5</v>
+      </c>
+      <c r="AI10" s="32" t="n">
+        <f aca="false">SUM(AI6+AI7)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="n">
         <v>43157</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="B11" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="18" t="n">
         <f aca="false">SUM(D11:I11)*100*C11</f>
         <v>100</v>
@@ -1475,50 +1776,50 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-      <c r="U11" s="24" t="n">
+      <c r="U11" s="26" t="n">
         <f aca="false">IF(D11=1,$C11,0)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="24" t="n">
+      <c r="V11" s="26" t="n">
         <f aca="false">IF(E11=1,$C11,0)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="24" t="n">
+      <c r="W11" s="26" t="n">
         <f aca="false">IF(F11=1,$C11,0)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="24" t="n">
+      <c r="X11" s="26" t="n">
         <f aca="false">IF(G11=1,$C11,0)</f>
         <v>1</v>
       </c>
-      <c r="Y11" s="24" t="n">
+      <c r="Y11" s="26" t="n">
         <f aca="false">IF(H11=1,$C11,0)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="24" t="n">
+      <c r="Z11" s="26" t="n">
         <f aca="false">IF(I11=1,$C11,0)</f>
         <v>0</v>
       </c>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="n">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27" t="n">
         <v>43157</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="B12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="18" t="n">
         <f aca="false">SUM(D12:I12)*100*C12</f>
         <v>100</v>
@@ -1550,52 +1851,52 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
-      <c r="U12" s="24" t="n">
+      <c r="U12" s="26" t="n">
         <f aca="false">IF(D12=1,$C12,0)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="24" t="n">
+      <c r="V12" s="26" t="n">
         <f aca="false">IF(E12=1,$C12,0)</f>
         <v>1</v>
       </c>
-      <c r="W12" s="24" t="n">
+      <c r="W12" s="26" t="n">
         <f aca="false">IF(F12=1,$C12,0)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="24" t="n">
+      <c r="X12" s="26" t="n">
         <f aca="false">IF(G12=1,$C12,0)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="24" t="n">
+      <c r="Y12" s="26" t="n">
         <f aca="false">IF(H12=1,$C12,0)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="24" t="n">
+      <c r="Z12" s="26" t="n">
         <f aca="false">IF(I12=1,$C12,0)</f>
         <v>0</v>
       </c>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="n">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="n">
         <v>43158</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="27" t="n">
+      <c r="B13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="28"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="30"/>
       <c r="J13" s="18" t="n">
         <f aca="false">SUM(D13:I13)*100*C13</f>
         <v>100</v>
@@ -1627,50 +1928,50 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="24" t="n">
+      <c r="U13" s="26" t="n">
         <f aca="false">IF(D13=1,$C13,0)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="24" t="n">
+      <c r="V13" s="26" t="n">
         <f aca="false">IF(E13=1,$C13,0)</f>
         <v>0.5</v>
       </c>
-      <c r="W13" s="24" t="n">
+      <c r="W13" s="26" t="n">
         <f aca="false">IF(F13=1,$C13,0)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="24" t="n">
+      <c r="X13" s="26" t="n">
         <f aca="false">IF(G13=1,$C13,0)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="24" t="n">
+      <c r="Y13" s="26" t="n">
         <f aca="false">IF(H13=1,$C13,0)</f>
         <v>0.5</v>
       </c>
-      <c r="Z13" s="24" t="n">
+      <c r="Z13" s="26" t="n">
         <f aca="false">IF(I13=1,$C13,0)</f>
         <v>0</v>
       </c>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="n">
+    <row r="14" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="n">
         <v>43158</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="27" t="n">
+      <c r="B14" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
       <c r="J14" s="18" t="n">
         <f aca="false">SUM(D14:I14)*100*C14</f>
         <v>200</v>
@@ -1702,50 +2003,50 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="24" t="n">
+      <c r="U14" s="26" t="n">
         <f aca="false">IF(D14=1,$C14,0)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="24" t="n">
+      <c r="V14" s="26" t="n">
         <f aca="false">IF(E14=1,$C14,0)</f>
         <v>2</v>
       </c>
-      <c r="W14" s="24" t="n">
+      <c r="W14" s="26" t="n">
         <f aca="false">IF(F14=1,$C14,0)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="24" t="n">
+      <c r="X14" s="26" t="n">
         <f aca="false">IF(G14=1,$C14,0)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="24" t="n">
+      <c r="Y14" s="26" t="n">
         <f aca="false">IF(H14=1,$C14,0)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="24" t="n">
+      <c r="Z14" s="26" t="n">
         <f aca="false">IF(I14=1,$C14,0)</f>
         <v>0</v>
       </c>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="n">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="n">
         <v>43159</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="27" t="n">
+      <c r="B15" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
       <c r="J15" s="18" t="n">
         <f aca="false">SUM(D15:I15)*100*C15</f>
         <v>50</v>
@@ -1777,50 +2078,50 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="24" t="n">
+      <c r="U15" s="26" t="n">
         <f aca="false">IF(D15=1,$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="24" t="n">
+      <c r="V15" s="26" t="n">
         <f aca="false">IF(E15=1,$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="24" t="n">
+      <c r="W15" s="26" t="n">
         <f aca="false">IF(F15=1,$C15,0)</f>
         <v>0.5</v>
       </c>
-      <c r="X15" s="24" t="n">
+      <c r="X15" s="26" t="n">
         <f aca="false">IF(G15=1,$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="24" t="n">
+      <c r="Y15" s="26" t="n">
         <f aca="false">IF(H15=1,$C15,0)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="24" t="n">
+      <c r="Z15" s="26" t="n">
         <f aca="false">IF(I15=1,$C15,0)</f>
         <v>0</v>
       </c>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27" t="n">
         <v>43159</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="27" t="n">
+      <c r="B16" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
       <c r="J16" s="18" t="n">
         <f aca="false">SUM(D16:I16)*100*C16</f>
         <v>50</v>
@@ -1852,48 +2153,48 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="24" t="n">
+      <c r="U16" s="26" t="n">
         <f aca="false">IF(D16=1,$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="24" t="n">
+      <c r="V16" s="26" t="n">
         <f aca="false">IF(E16=1,$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="24" t="n">
+      <c r="W16" s="26" t="n">
         <f aca="false">IF(F16=1,$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="24" t="n">
+      <c r="X16" s="26" t="n">
         <f aca="false">IF(G16=1,$C16,0)</f>
         <v>0.5</v>
       </c>
-      <c r="Y16" s="24" t="n">
+      <c r="Y16" s="26" t="n">
         <f aca="false">IF(H16=1,$C16,0)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="24" t="n">
+      <c r="Z16" s="26" t="n">
         <f aca="false">IF(I16=1,$C16,0)</f>
         <v>0</v>
       </c>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="n">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="n">
         <v>43159</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="27" t="n">
+      <c r="B17" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28" t="n">
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="18" t="n">
@@ -1927,50 +2228,50 @@
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
-      <c r="U17" s="24" t="n">
+      <c r="U17" s="26" t="n">
         <f aca="false">IF(D17=1,$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="V17" s="24" t="n">
+      <c r="V17" s="26" t="n">
         <f aca="false">IF(E17=1,$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="W17" s="24" t="n">
+      <c r="W17" s="26" t="n">
         <f aca="false">IF(F17=1,$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="X17" s="24" t="n">
+      <c r="X17" s="26" t="n">
         <f aca="false">IF(G17=1,$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="Y17" s="24" t="n">
+      <c r="Y17" s="26" t="n">
         <f aca="false">IF(H17=1,$C17,0)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="24" t="n">
+      <c r="Z17" s="26" t="n">
         <f aca="false">IF(I17=1,$C17,0)</f>
         <v>0.5</v>
       </c>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="n">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27" t="n">
         <v>43160</v>
       </c>
-      <c r="B18" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="27" t="n">
+      <c r="B18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="29" t="n">
         <v>1.5</v>
       </c>
-      <c r="D18" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="D18" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
       <c r="J18" s="18" t="n">
         <f aca="false">SUM(D18:I18)*100*C18</f>
         <v>150</v>
@@ -2002,48 +2303,48 @@
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="24" t="n">
+      <c r="U18" s="26" t="n">
         <f aca="false">IF(D18=1,$C18,0)</f>
         <v>1.5</v>
       </c>
-      <c r="V18" s="24" t="n">
+      <c r="V18" s="26" t="n">
         <f aca="false">IF(E18=1,$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="W18" s="24" t="n">
+      <c r="W18" s="26" t="n">
         <f aca="false">IF(F18=1,$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="X18" s="24" t="n">
+      <c r="X18" s="26" t="n">
         <f aca="false">IF(G18=1,$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="Y18" s="24" t="n">
+      <c r="Y18" s="26" t="n">
         <f aca="false">IF(H18=1,$C18,0)</f>
         <v>0</v>
       </c>
-      <c r="Z18" s="24" t="n">
+      <c r="Z18" s="26" t="n">
         <f aca="false">IF(I18=1,$C18,0)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="n">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="33" t="n">
         <v>43160</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28" t="n">
+      <c r="B19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J19" s="18" t="n">
@@ -2077,48 +2378,48 @@
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-      <c r="U19" s="24" t="n">
+      <c r="U19" s="26" t="n">
         <f aca="false">IF(D19=1,$C19,0)</f>
         <v>0</v>
       </c>
-      <c r="V19" s="24" t="n">
+      <c r="V19" s="26" t="n">
         <f aca="false">IF(E19=1,$C19,0)</f>
         <v>0</v>
       </c>
-      <c r="W19" s="24" t="n">
+      <c r="W19" s="26" t="n">
         <f aca="false">IF(F19=1,$C19,0)</f>
         <v>0</v>
       </c>
-      <c r="X19" s="24" t="n">
+      <c r="X19" s="26" t="n">
         <f aca="false">IF(G19=1,$C19,0)</f>
         <v>0</v>
       </c>
-      <c r="Y19" s="24" t="n">
+      <c r="Y19" s="26" t="n">
         <f aca="false">IF(H19=1,$C19,0)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="24" t="n">
+      <c r="Z19" s="26" t="n">
         <f aca="false">IF(I19=1,$C19,0)</f>
         <v>1</v>
       </c>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30" t="n">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="33" t="n">
         <v>43164</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28" t="n">
+      <c r="B20" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J20" s="18" t="n">
@@ -2152,48 +2453,48 @@
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
-      <c r="U20" s="24" t="n">
+      <c r="U20" s="26" t="n">
         <f aca="false">IF(D20=1,$C20,0)</f>
         <v>0</v>
       </c>
-      <c r="V20" s="24" t="n">
+      <c r="V20" s="26" t="n">
         <f aca="false">IF(E20=1,$C20,0)</f>
         <v>0</v>
       </c>
-      <c r="W20" s="24" t="n">
+      <c r="W20" s="26" t="n">
         <f aca="false">IF(F20=1,$C20,0)</f>
         <v>0</v>
       </c>
-      <c r="X20" s="24" t="n">
+      <c r="X20" s="26" t="n">
         <f aca="false">IF(G20=1,$C20,0)</f>
         <v>0</v>
       </c>
-      <c r="Y20" s="24" t="n">
+      <c r="Y20" s="26" t="n">
         <f aca="false">IF(H20=1,$C20,0)</f>
         <v>0</v>
       </c>
-      <c r="Z20" s="24" t="n">
+      <c r="Z20" s="26" t="n">
         <f aca="false">IF(I20=1,$C20,0)</f>
         <v>1</v>
       </c>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="n">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="27" t="n">
         <v>43165</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="27" t="n">
+      <c r="B21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28" t="n">
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J21" s="18" t="n">
@@ -2227,50 +2528,50 @@
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
-      <c r="U21" s="24" t="n">
+      <c r="U21" s="26" t="n">
         <f aca="false">IF(D21=1,$C21,0)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="24" t="n">
+      <c r="V21" s="26" t="n">
         <f aca="false">IF(E21=1,$C21,0)</f>
         <v>0</v>
       </c>
-      <c r="W21" s="24" t="n">
+      <c r="W21" s="26" t="n">
         <f aca="false">IF(F21=1,$C21,0)</f>
         <v>0</v>
       </c>
-      <c r="X21" s="24" t="n">
+      <c r="X21" s="26" t="n">
         <f aca="false">IF(G21=1,$C21,0)</f>
         <v>0</v>
       </c>
-      <c r="Y21" s="24" t="n">
+      <c r="Y21" s="26" t="n">
         <f aca="false">IF(H21=1,$C21,0)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="24" t="n">
+      <c r="Z21" s="26" t="n">
         <f aca="false">IF(I21=1,$C21,0)</f>
         <v>2</v>
       </c>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="n">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="27" t="n">
         <v>43165</v>
       </c>
-      <c r="B22" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="B22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
       <c r="J22" s="18" t="n">
         <f aca="false">SUM(D22:I22)*100*C22</f>
         <v>100</v>
@@ -2302,50 +2603,50 @@
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="24" t="n">
+      <c r="U22" s="26" t="n">
         <f aca="false">IF(D22=1,$C22,0)</f>
         <v>0</v>
       </c>
-      <c r="V22" s="24" t="n">
+      <c r="V22" s="26" t="n">
         <f aca="false">IF(E22=1,$C22,0)</f>
         <v>0</v>
       </c>
-      <c r="W22" s="24" t="n">
+      <c r="W22" s="26" t="n">
         <f aca="false">IF(F22=1,$C22,0)</f>
         <v>0</v>
       </c>
-      <c r="X22" s="24" t="n">
+      <c r="X22" s="26" t="n">
         <f aca="false">IF(G22=1,$C22,0)</f>
         <v>1</v>
       </c>
-      <c r="Y22" s="24" t="n">
+      <c r="Y22" s="26" t="n">
         <f aca="false">IF(H22=1,$C22,0)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="24" t="n">
+      <c r="Z22" s="26" t="n">
         <f aca="false">IF(I22=1,$C22,0)</f>
         <v>0</v>
       </c>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="27" t="n">
         <v>43165</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28" t="n">
+      <c r="B23" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J23" s="18" t="n">
@@ -2379,48 +2680,48 @@
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
-      <c r="U23" s="24" t="n">
+      <c r="U23" s="26" t="n">
         <f aca="false">IF(D23=1,$C23,0)</f>
         <v>1</v>
       </c>
-      <c r="V23" s="24" t="n">
+      <c r="V23" s="26" t="n">
         <f aca="false">IF(E23=1,$C23,0)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="24" t="n">
+      <c r="W23" s="26" t="n">
         <f aca="false">IF(F23=1,$C23,0)</f>
         <v>0</v>
       </c>
-      <c r="X23" s="24" t="n">
+      <c r="X23" s="26" t="n">
         <f aca="false">IF(G23=1,$C23,0)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="24" t="n">
+      <c r="Y23" s="26" t="n">
         <f aca="false">IF(H23=1,$C23,0)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="24" t="n">
+      <c r="Z23" s="26" t="n">
         <f aca="false">IF(I23=1,$C23,0)</f>
         <v>1</v>
       </c>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25" t="n">
+    <row r="24" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="27" t="n">
         <v>43166</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="27" t="n">
+      <c r="B24" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28" t="n">
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J24" s="18" t="n">
@@ -2454,50 +2755,50 @@
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="24" t="n">
+      <c r="U24" s="26" t="n">
         <f aca="false">IF(D24=1,$C24,0)</f>
         <v>0</v>
       </c>
-      <c r="V24" s="24" t="n">
+      <c r="V24" s="26" t="n">
         <f aca="false">IF(E24=1,$C24,0)</f>
         <v>0</v>
       </c>
-      <c r="W24" s="24" t="n">
+      <c r="W24" s="26" t="n">
         <f aca="false">IF(F24=1,$C24,0)</f>
         <v>0</v>
       </c>
-      <c r="X24" s="24" t="n">
+      <c r="X24" s="26" t="n">
         <f aca="false">IF(G24=1,$C24,0)</f>
         <v>0</v>
       </c>
-      <c r="Y24" s="24" t="n">
+      <c r="Y24" s="26" t="n">
         <f aca="false">IF(H24=1,$C24,0)</f>
         <v>0</v>
       </c>
-      <c r="Z24" s="24" t="n">
+      <c r="Z24" s="26" t="n">
         <f aca="false">IF(I24=1,$C24,0)</f>
         <v>0.5</v>
       </c>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="25" t="n">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="27" t="n">
         <v>43166</v>
       </c>
-      <c r="B25" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="B25" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
       <c r="J25" s="18" t="n">
         <f aca="false">SUM(D25:I25)*100*C25</f>
         <v>100</v>
@@ -2529,50 +2830,50 @@
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
-      <c r="U25" s="24" t="n">
+      <c r="U25" s="26" t="n">
         <f aca="false">IF(D25=1,$C25,0)</f>
         <v>1</v>
       </c>
-      <c r="V25" s="24" t="n">
+      <c r="V25" s="26" t="n">
         <f aca="false">IF(E25=1,$C25,0)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="24" t="n">
+      <c r="W25" s="26" t="n">
         <f aca="false">IF(F25=1,$C25,0)</f>
         <v>0</v>
       </c>
-      <c r="X25" s="24" t="n">
+      <c r="X25" s="26" t="n">
         <f aca="false">IF(G25=1,$C25,0)</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="24" t="n">
+      <c r="Y25" s="26" t="n">
         <f aca="false">IF(H25=1,$C25,0)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="24" t="n">
+      <c r="Z25" s="26" t="n">
         <f aca="false">IF(I25=1,$C25,0)</f>
         <v>0</v>
       </c>
       <c r="AA25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="25" t="n">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="27" t="n">
         <v>43167</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="B26" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="18" t="n">
         <f aca="false">SUM(D26:I26)*100*C26</f>
         <v>100</v>
@@ -2604,50 +2905,50 @@
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="24" t="n">
+      <c r="U26" s="26" t="n">
         <f aca="false">IF(D26=1,$C26,0)</f>
         <v>0</v>
       </c>
-      <c r="V26" s="24" t="n">
+      <c r="V26" s="26" t="n">
         <f aca="false">IF(E26=1,$C26,0)</f>
         <v>1</v>
       </c>
-      <c r="W26" s="24" t="n">
+      <c r="W26" s="26" t="n">
         <f aca="false">IF(F26=1,$C26,0)</f>
         <v>0</v>
       </c>
-      <c r="X26" s="24" t="n">
+      <c r="X26" s="26" t="n">
         <f aca="false">IF(G26=1,$C26,0)</f>
         <v>0</v>
       </c>
-      <c r="Y26" s="24" t="n">
+      <c r="Y26" s="26" t="n">
         <f aca="false">IF(H26=1,$C26,0)</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="24" t="n">
+      <c r="Z26" s="26" t="n">
         <f aca="false">IF(I26=1,$C26,0)</f>
         <v>0</v>
       </c>
       <c r="AA26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="n">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="27" t="n">
         <v>43172</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="27" t="n">
+      <c r="B27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="29" t="n">
         <v>2</v>
       </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="18" t="n">
         <f aca="false">SUM(D27:I27)*100*C27</f>
         <v>200</v>
@@ -2679,50 +2980,50 @@
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
-      <c r="U27" s="24" t="n">
+      <c r="U27" s="26" t="n">
         <f aca="false">IF(D27=1,$C27,0)</f>
         <v>0</v>
       </c>
-      <c r="V27" s="24" t="n">
+      <c r="V27" s="26" t="n">
         <f aca="false">IF(E27=1,$C27,0)</f>
         <v>0</v>
       </c>
-      <c r="W27" s="24" t="n">
+      <c r="W27" s="26" t="n">
         <f aca="false">IF(F27=1,$C27,0)</f>
         <v>0</v>
       </c>
-      <c r="X27" s="24" t="n">
+      <c r="X27" s="26" t="n">
         <f aca="false">IF(G27=1,$C27,0)</f>
         <v>2</v>
       </c>
-      <c r="Y27" s="24" t="n">
+      <c r="Y27" s="26" t="n">
         <f aca="false">IF(H27=1,$C27,0)</f>
         <v>0</v>
       </c>
-      <c r="Z27" s="24" t="n">
+      <c r="Z27" s="26" t="n">
         <f aca="false">IF(I27=1,$C27,0)</f>
         <v>0</v>
       </c>
       <c r="AA27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="25" t="n">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="27" t="n">
         <v>43172</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="27" t="n">
+      <c r="B28" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="29" t="n">
         <v>0.25</v>
       </c>
-      <c r="D28" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="D28" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
       <c r="J28" s="18" t="n">
         <f aca="false">SUM(D28:I28)*100*C28</f>
         <v>25</v>
@@ -2754,50 +3055,50 @@
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
-      <c r="U28" s="24" t="n">
+      <c r="U28" s="26" t="n">
         <f aca="false">IF(D28=1,$C28,0)</f>
         <v>0.25</v>
       </c>
-      <c r="V28" s="24" t="n">
+      <c r="V28" s="26" t="n">
         <f aca="false">IF(E28=1,$C28,0)</f>
         <v>0</v>
       </c>
-      <c r="W28" s="24" t="n">
+      <c r="W28" s="26" t="n">
         <f aca="false">IF(F28=1,$C28,0)</f>
         <v>0</v>
       </c>
-      <c r="X28" s="24" t="n">
+      <c r="X28" s="26" t="n">
         <f aca="false">IF(G28=1,$C28,0)</f>
         <v>0</v>
       </c>
-      <c r="Y28" s="24" t="n">
+      <c r="Y28" s="26" t="n">
         <f aca="false">IF(H28=1,$C28,0)</f>
         <v>0</v>
       </c>
-      <c r="Z28" s="24" t="n">
+      <c r="Z28" s="26" t="n">
         <f aca="false">IF(I28=1,$C28,0)</f>
         <v>0</v>
       </c>
       <c r="AA28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="25" t="n">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="27" t="n">
         <v>43173</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="B29" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
       <c r="J29" s="18" t="n">
         <f aca="false">SUM(D29:I29)*100*C29</f>
         <v>100</v>
@@ -2829,48 +3130,48 @@
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
-      <c r="U29" s="24" t="n">
+      <c r="U29" s="26" t="n">
         <f aca="false">IF(D29=1,$C29,0)</f>
         <v>1</v>
       </c>
-      <c r="V29" s="24" t="n">
+      <c r="V29" s="26" t="n">
         <f aca="false">IF(E29=1,$C29,0)</f>
         <v>0</v>
       </c>
-      <c r="W29" s="24" t="n">
+      <c r="W29" s="26" t="n">
         <f aca="false">IF(F29=1,$C29,0)</f>
         <v>0</v>
       </c>
-      <c r="X29" s="24" t="n">
+      <c r="X29" s="26" t="n">
         <f aca="false">IF(G29=1,$C29,0)</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="24" t="n">
+      <c r="Y29" s="26" t="n">
         <f aca="false">IF(H29=1,$C29,0)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="24" t="n">
+      <c r="Z29" s="26" t="n">
         <f aca="false">IF(I29=1,$C29,0)</f>
         <v>0</v>
       </c>
       <c r="AA29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="n">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="27" t="n">
         <v>43173</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="27" t="n">
+      <c r="B30" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28" t="n">
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J30" s="18" t="n">
@@ -2904,50 +3205,50 @@
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="24" t="n">
+      <c r="U30" s="26" t="n">
         <f aca="false">IF(D30=1,$C30,0)</f>
         <v>0</v>
       </c>
-      <c r="V30" s="24" t="n">
+      <c r="V30" s="26" t="n">
         <f aca="false">IF(E30=1,$C30,0)</f>
         <v>0</v>
       </c>
-      <c r="W30" s="24" t="n">
+      <c r="W30" s="26" t="n">
         <f aca="false">IF(F30=1,$C30,0)</f>
         <v>0</v>
       </c>
-      <c r="X30" s="24" t="n">
+      <c r="X30" s="26" t="n">
         <f aca="false">IF(G30=1,$C30,0)</f>
         <v>0</v>
       </c>
-      <c r="Y30" s="24" t="n">
+      <c r="Y30" s="26" t="n">
         <f aca="false">IF(H30=1,$C30,0)</f>
         <v>0</v>
       </c>
-      <c r="Z30" s="24" t="n">
+      <c r="Z30" s="26" t="n">
         <f aca="false">IF(I30=1,$C30,0)</f>
         <v>0.5</v>
       </c>
       <c r="AA30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="27" t="n">
         <v>43174</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="B31" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
       <c r="J31" s="18" t="n">
         <f aca="false">SUM(D31:I31)*100*C31</f>
         <v>100</v>
@@ -2979,50 +3280,50 @@
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
-      <c r="U31" s="24" t="n">
+      <c r="U31" s="26" t="n">
         <f aca="false">IF(D31=1,$C31,0)</f>
         <v>1</v>
       </c>
-      <c r="V31" s="24" t="n">
+      <c r="V31" s="26" t="n">
         <f aca="false">IF(E31=1,$C31,0)</f>
         <v>0</v>
       </c>
-      <c r="W31" s="24" t="n">
+      <c r="W31" s="26" t="n">
         <f aca="false">IF(F31=1,$C31,0)</f>
         <v>0</v>
       </c>
-      <c r="X31" s="24" t="n">
+      <c r="X31" s="26" t="n">
         <f aca="false">IF(G31=1,$C31,0)</f>
         <v>0</v>
       </c>
-      <c r="Y31" s="24" t="n">
+      <c r="Y31" s="26" t="n">
         <f aca="false">IF(H31=1,$C31,0)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="24" t="n">
+      <c r="Z31" s="26" t="n">
         <f aca="false">IF(I31=1,$C31,0)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="25" t="n">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="27" t="n">
         <v>43176</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="31" t="n">
+      <c r="B32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="34" t="n">
         <v>0.5</v>
       </c>
-      <c r="D32" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="D32" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
       <c r="J32" s="18" t="n">
         <f aca="false">SUM(D32:I32)*100*C32</f>
         <v>50</v>
@@ -3054,50 +3355,50 @@
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="24" t="n">
+      <c r="U32" s="26" t="n">
         <f aca="false">IF(D32=1,$C32,0)</f>
         <v>0.5</v>
       </c>
-      <c r="V32" s="24" t="n">
+      <c r="V32" s="26" t="n">
         <f aca="false">IF(E32=1,$C32,0)</f>
         <v>0</v>
       </c>
-      <c r="W32" s="24" t="n">
+      <c r="W32" s="26" t="n">
         <f aca="false">IF(F32=1,$C32,0)</f>
         <v>0</v>
       </c>
-      <c r="X32" s="24" t="n">
+      <c r="X32" s="26" t="n">
         <f aca="false">IF(G32=1,$C32,0)</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="24" t="n">
+      <c r="Y32" s="26" t="n">
         <f aca="false">IF(H32=1,$C32,0)</f>
         <v>0</v>
       </c>
-      <c r="Z32" s="24" t="n">
+      <c r="Z32" s="26" t="n">
         <f aca="false">IF(I32=1,$C32,0)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25" t="n">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="27" t="n">
         <v>43177</v>
       </c>
-      <c r="B33" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="B33" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
       <c r="J33" s="18" t="n">
         <f aca="false">SUM(D33:I33)*100*C33</f>
         <v>100</v>
@@ -3129,50 +3430,50 @@
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
-      <c r="U33" s="24" t="n">
+      <c r="U33" s="26" t="n">
         <f aca="false">IF(D33=1,$C33,0)</f>
         <v>1</v>
       </c>
-      <c r="V33" s="24" t="n">
+      <c r="V33" s="26" t="n">
         <f aca="false">IF(E33=1,$C33,0)</f>
         <v>0</v>
       </c>
-      <c r="W33" s="24" t="n">
+      <c r="W33" s="26" t="n">
         <f aca="false">IF(F33=1,$C33,0)</f>
         <v>0</v>
       </c>
-      <c r="X33" s="24" t="n">
+      <c r="X33" s="26" t="n">
         <f aca="false">IF(G33=1,$C33,0)</f>
         <v>0</v>
       </c>
-      <c r="Y33" s="24" t="n">
+      <c r="Y33" s="26" t="n">
         <f aca="false">IF(H33=1,$C33,0)</f>
         <v>0</v>
       </c>
-      <c r="Z33" s="24" t="n">
+      <c r="Z33" s="26" t="n">
         <f aca="false">IF(I33=1,$C33,0)</f>
         <v>0</v>
       </c>
       <c r="AA33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="25" t="n">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="27" t="n">
         <v>43179</v>
       </c>
-      <c r="B34" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="31" t="n">
+      <c r="B34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="28"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="30"/>
       <c r="J34" s="18" t="n">
         <f aca="false">SUM(D34:I34)*100*C34</f>
         <v>150</v>
@@ -3204,50 +3505,50 @@
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="24" t="n">
+      <c r="U34" s="26" t="n">
         <f aca="false">IF(D34=1,$C34,0)</f>
         <v>0</v>
       </c>
-      <c r="V34" s="24" t="n">
+      <c r="V34" s="26" t="n">
         <f aca="false">IF(E34=1,$C34,0)</f>
         <v>0</v>
       </c>
-      <c r="W34" s="24" t="n">
+      <c r="W34" s="26" t="n">
         <f aca="false">IF(F34=1,$C34,0)</f>
         <v>0</v>
       </c>
-      <c r="X34" s="24" t="n">
+      <c r="X34" s="26" t="n">
         <f aca="false">IF(G34=1,$C34,0)</f>
         <v>0</v>
       </c>
-      <c r="Y34" s="24" t="n">
+      <c r="Y34" s="26" t="n">
         <f aca="false">IF(H34=1,$C34,0)</f>
         <v>1.5</v>
       </c>
-      <c r="Z34" s="24" t="n">
+      <c r="Z34" s="26" t="n">
         <f aca="false">IF(I34=1,$C34,0)</f>
         <v>0</v>
       </c>
       <c r="AA34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="n">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="27" t="n">
         <v>43179</v>
       </c>
-      <c r="B35" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="31" t="n">
+      <c r="B35" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="34" t="n">
         <v>2.5</v>
       </c>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" s="28"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="30"/>
       <c r="J35" s="18" t="n">
         <f aca="false">SUM(D35:I35)*100*C35</f>
         <v>250</v>
@@ -3279,48 +3580,48 @@
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
-      <c r="U35" s="24" t="n">
+      <c r="U35" s="26" t="n">
         <f aca="false">IF(D35=1,$C35,0)</f>
         <v>0</v>
       </c>
-      <c r="V35" s="24" t="n">
+      <c r="V35" s="26" t="n">
         <f aca="false">IF(E35=1,$C35,0)</f>
         <v>0</v>
       </c>
-      <c r="W35" s="24" t="n">
+      <c r="W35" s="26" t="n">
         <f aca="false">IF(F35=1,$C35,0)</f>
         <v>0</v>
       </c>
-      <c r="X35" s="24" t="n">
+      <c r="X35" s="26" t="n">
         <f aca="false">IF(G35=1,$C35,0)</f>
         <v>0</v>
       </c>
-      <c r="Y35" s="24" t="n">
+      <c r="Y35" s="26" t="n">
         <f aca="false">IF(H35=1,$C35,0)</f>
         <v>2.5</v>
       </c>
-      <c r="Z35" s="24" t="n">
+      <c r="Z35" s="26" t="n">
         <f aca="false">IF(I35=1,$C35,0)</f>
         <v>0</v>
       </c>
       <c r="AA35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="n">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="27" t="n">
         <v>43179</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28" t="n">
+      <c r="B36" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J36" s="18" t="n">
@@ -3354,50 +3655,50 @@
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
-      <c r="U36" s="24" t="n">
+      <c r="U36" s="26" t="n">
         <f aca="false">IF(D36=1,$C36,0)</f>
         <v>0</v>
       </c>
-      <c r="V36" s="24" t="n">
+      <c r="V36" s="26" t="n">
         <f aca="false">IF(E36=1,$C36,0)</f>
         <v>0</v>
       </c>
-      <c r="W36" s="24" t="n">
+      <c r="W36" s="26" t="n">
         <f aca="false">IF(F36=1,$C36,0)</f>
         <v>0</v>
       </c>
-      <c r="X36" s="24" t="n">
+      <c r="X36" s="26" t="n">
         <f aca="false">IF(G36=1,$C36,0)</f>
         <v>0</v>
       </c>
-      <c r="Y36" s="24" t="n">
+      <c r="Y36" s="26" t="n">
         <f aca="false">IF(H36=1,$C36,0)</f>
         <v>0</v>
       </c>
-      <c r="Z36" s="24" t="n">
+      <c r="Z36" s="26" t="n">
         <f aca="false">IF(I36=1,$C36,0)</f>
         <v>1</v>
       </c>
       <c r="AA36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="n">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="27" t="n">
         <v>43180</v>
       </c>
-      <c r="B37" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="31" t="n">
+      <c r="B37" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="34" t="n">
         <v>1.5</v>
       </c>
-      <c r="D37" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="D37" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
       <c r="J37" s="18" t="n">
         <f aca="false">SUM(D37:I37)*100*C37</f>
         <v>150</v>
@@ -3429,50 +3730,50 @@
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
-      <c r="U37" s="24" t="n">
+      <c r="U37" s="26" t="n">
         <f aca="false">IF(D37=1,$C37,0)</f>
         <v>1.5</v>
       </c>
-      <c r="V37" s="24" t="n">
+      <c r="V37" s="26" t="n">
         <f aca="false">IF(E37=1,$C37,0)</f>
         <v>0</v>
       </c>
-      <c r="W37" s="24" t="n">
+      <c r="W37" s="26" t="n">
         <f aca="false">IF(F37=1,$C37,0)</f>
         <v>0</v>
       </c>
-      <c r="X37" s="24" t="n">
+      <c r="X37" s="26" t="n">
         <f aca="false">IF(G37=1,$C37,0)</f>
         <v>0</v>
       </c>
-      <c r="Y37" s="24" t="n">
+      <c r="Y37" s="26" t="n">
         <f aca="false">IF(H37=1,$C37,0)</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="24" t="n">
+      <c r="Z37" s="26" t="n">
         <f aca="false">IF(I37=1,$C37,0)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25" t="n">
+    <row r="38" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="27" t="n">
         <v>43180</v>
       </c>
-      <c r="B38" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="B38" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
       <c r="J38" s="18" t="n">
         <f aca="false">SUM(D38:I38)*100*C38</f>
         <v>100</v>
@@ -3504,50 +3805,50 @@
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="24" t="n">
+      <c r="U38" s="26" t="n">
         <f aca="false">IF(D38=1,$C38,0)</f>
         <v>1</v>
       </c>
-      <c r="V38" s="24" t="n">
+      <c r="V38" s="26" t="n">
         <f aca="false">IF(E38=1,$C38,0)</f>
         <v>0</v>
       </c>
-      <c r="W38" s="24" t="n">
+      <c r="W38" s="26" t="n">
         <f aca="false">IF(F38=1,$C38,0)</f>
         <v>0</v>
       </c>
-      <c r="X38" s="24" t="n">
+      <c r="X38" s="26" t="n">
         <f aca="false">IF(G38=1,$C38,0)</f>
         <v>0</v>
       </c>
-      <c r="Y38" s="24" t="n">
+      <c r="Y38" s="26" t="n">
         <f aca="false">IF(H38=1,$C38,0)</f>
         <v>0</v>
       </c>
-      <c r="Z38" s="24" t="n">
+      <c r="Z38" s="26" t="n">
         <f aca="false">IF(I38=1,$C38,0)</f>
         <v>0</v>
       </c>
       <c r="AA38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="n">
+    <row r="39" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="27" t="n">
         <v>43180</v>
       </c>
-      <c r="B39" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="31" t="n">
+      <c r="B39" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
       <c r="J39" s="18" t="n">
         <f aca="false">SUM(D39:I39)*100*C39</f>
         <v>300</v>
@@ -3579,50 +3880,50 @@
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-      <c r="U39" s="24" t="n">
+      <c r="U39" s="26" t="n">
         <f aca="false">IF(D39=1,$C39,0)</f>
         <v>0</v>
       </c>
-      <c r="V39" s="24" t="n">
+      <c r="V39" s="26" t="n">
         <f aca="false">IF(E39=1,$C39,0)</f>
         <v>3</v>
       </c>
-      <c r="W39" s="24" t="n">
+      <c r="W39" s="26" t="n">
         <f aca="false">IF(F39=1,$C39,0)</f>
         <v>0</v>
       </c>
-      <c r="X39" s="24" t="n">
+      <c r="X39" s="26" t="n">
         <f aca="false">IF(G39=1,$C39,0)</f>
         <v>0</v>
       </c>
-      <c r="Y39" s="24" t="n">
+      <c r="Y39" s="26" t="n">
         <f aca="false">IF(H39=1,$C39,0)</f>
         <v>0</v>
       </c>
-      <c r="Z39" s="24" t="n">
+      <c r="Z39" s="26" t="n">
         <f aca="false">IF(I39=1,$C39,0)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="n">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="27" t="n">
         <v>43180</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="31" t="n">
+      <c r="B40" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
       <c r="J40" s="18" t="n">
         <f aca="false">SUM(D40:I40)*100*C40</f>
         <v>200</v>
@@ -3654,50 +3955,50 @@
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="24" t="n">
+      <c r="U40" s="26" t="n">
         <f aca="false">IF(D40=1,$C40,0)</f>
         <v>0</v>
       </c>
-      <c r="V40" s="24" t="n">
+      <c r="V40" s="26" t="n">
         <f aca="false">IF(E40=1,$C40,0)</f>
         <v>2</v>
       </c>
-      <c r="W40" s="24" t="n">
+      <c r="W40" s="26" t="n">
         <f aca="false">IF(F40=1,$C40,0)</f>
         <v>0</v>
       </c>
-      <c r="X40" s="24" t="n">
+      <c r="X40" s="26" t="n">
         <f aca="false">IF(G40=1,$C40,0)</f>
         <v>0</v>
       </c>
-      <c r="Y40" s="24" t="n">
+      <c r="Y40" s="26" t="n">
         <f aca="false">IF(H40=1,$C40,0)</f>
         <v>0</v>
       </c>
-      <c r="Z40" s="24" t="n">
+      <c r="Z40" s="26" t="n">
         <f aca="false">IF(I40=1,$C40,0)</f>
         <v>0</v>
       </c>
       <c r="AA40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="n">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="27" t="n">
         <v>43180</v>
       </c>
-      <c r="B41" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D41" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="B41" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
       <c r="J41" s="18" t="n">
         <f aca="false">SUM(D41:I41)*100*C41</f>
         <v>100</v>
@@ -3729,50 +4030,50 @@
       </c>
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
-      <c r="U41" s="24" t="n">
+      <c r="U41" s="26" t="n">
         <f aca="false">IF(D41=1,$C41,0)</f>
         <v>1</v>
       </c>
-      <c r="V41" s="24" t="n">
+      <c r="V41" s="26" t="n">
         <f aca="false">IF(E41=1,$C41,0)</f>
         <v>0</v>
       </c>
-      <c r="W41" s="24" t="n">
+      <c r="W41" s="26" t="n">
         <f aca="false">IF(F41=1,$C41,0)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="24" t="n">
+      <c r="X41" s="26" t="n">
         <f aca="false">IF(G41=1,$C41,0)</f>
         <v>0</v>
       </c>
-      <c r="Y41" s="24" t="n">
+      <c r="Y41" s="26" t="n">
         <f aca="false">IF(H41=1,$C41,0)</f>
         <v>0</v>
       </c>
-      <c r="Z41" s="24" t="n">
+      <c r="Z41" s="26" t="n">
         <f aca="false">IF(I41=1,$C41,0)</f>
         <v>0</v>
       </c>
       <c r="AA41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="25" t="n">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="27" t="n">
         <v>43181</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="31" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="B42" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
       <c r="J42" s="18" t="n">
         <f aca="false">SUM(D42:I42)*100*C42</f>
         <v>100</v>
@@ -3802,50 +4103,54 @@
         <f aca="false">IF(I42=1,100*$C42,0)</f>
         <v>0</v>
       </c>
-      <c r="S42" s="3"/>
+      <c r="S42" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="T42" s="3"/>
-      <c r="U42" s="24" t="n">
+      <c r="U42" s="26" t="n">
         <f aca="false">IF(D42=1,$C42,0)</f>
         <v>1</v>
       </c>
-      <c r="V42" s="24" t="n">
+      <c r="V42" s="26" t="n">
         <f aca="false">IF(E42=1,$C42,0)</f>
         <v>0</v>
       </c>
-      <c r="W42" s="24" t="n">
+      <c r="W42" s="26" t="n">
         <f aca="false">IF(F42=1,$C42,0)</f>
         <v>0</v>
       </c>
-      <c r="X42" s="24" t="n">
+      <c r="X42" s="26" t="n">
         <f aca="false">IF(G42=1,$C42,0)</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="24" t="n">
+      <c r="Y42" s="26" t="n">
         <f aca="false">IF(H42=1,$C42,0)</f>
         <v>0</v>
       </c>
-      <c r="Z42" s="24" t="n">
+      <c r="Z42" s="26" t="n">
         <f aca="false">IF(I42=1,$C42,0)</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="3"/>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="n">
+      <c r="AA42" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="27" t="n">
         <v>43183</v>
       </c>
-      <c r="B43" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="31" t="n">
+      <c r="B43" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28" t="n">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30" t="n">
         <v>1</v>
       </c>
       <c r="J43" s="18" t="n">
@@ -3877,52 +4182,58 @@
         <f aca="false">IF(I43=1,100*$C43,0)</f>
         <v>300</v>
       </c>
-      <c r="S43" s="3"/>
+      <c r="S43" s="35" t="n">
+        <f aca="false">SUM(M3:M42,N3:N42,O3:O42,P3:P42,Q3:Q42,R3:R42)</f>
+        <v>5125</v>
+      </c>
       <c r="T43" s="3"/>
-      <c r="U43" s="24" t="n">
+      <c r="U43" s="26" t="n">
         <f aca="false">IF(D43=1,$C43,0)</f>
         <v>0</v>
       </c>
-      <c r="V43" s="24" t="n">
+      <c r="V43" s="26" t="n">
         <f aca="false">IF(E43=1,$C43,0)</f>
         <v>0</v>
       </c>
-      <c r="W43" s="24" t="n">
+      <c r="W43" s="26" t="n">
         <f aca="false">IF(F43=1,$C43,0)</f>
         <v>0</v>
       </c>
-      <c r="X43" s="24" t="n">
+      <c r="X43" s="26" t="n">
         <f aca="false">IF(G43=1,$C43,0)</f>
         <v>0</v>
       </c>
-      <c r="Y43" s="24" t="n">
+      <c r="Y43" s="26" t="n">
         <f aca="false">IF(H43=1,$C43,0)</f>
         <v>0</v>
       </c>
-      <c r="Z43" s="24" t="n">
+      <c r="Z43" s="26" t="n">
         <f aca="false">IF(I43=1,$C43,0)</f>
         <v>3</v>
       </c>
-      <c r="AA43" s="3"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="25" t="n">
+      <c r="AA43" s="3" t="n">
+        <f aca="false">SUM(U3:U42,V3:V42,W3:W42,X3:X42,Y3:Y42,Z3:Z42)</f>
+        <v>51.25</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="27" t="n">
         <v>43185</v>
       </c>
-      <c r="B44" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="31" t="n">
+      <c r="B44" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="D44" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="D44" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
       <c r="J44" s="18" t="n">
         <f aca="false">SUM(D44:I44)*100*C44</f>
         <v>200</v>
@@ -3954,48 +4265,48 @@
       </c>
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
-      <c r="U44" s="24" t="n">
+      <c r="U44" s="26" t="n">
         <f aca="false">IF(D44=1,$C44,0)</f>
         <v>2</v>
       </c>
-      <c r="V44" s="24" t="n">
+      <c r="V44" s="26" t="n">
         <f aca="false">IF(E44=1,$C44,0)</f>
         <v>0</v>
       </c>
-      <c r="W44" s="24" t="n">
+      <c r="W44" s="26" t="n">
         <f aca="false">IF(F44=1,$C44,0)</f>
         <v>0</v>
       </c>
-      <c r="X44" s="24" t="n">
+      <c r="X44" s="26" t="n">
         <f aca="false">IF(G44=1,$C44,0)</f>
         <v>0</v>
       </c>
-      <c r="Y44" s="24" t="n">
+      <c r="Y44" s="26" t="n">
         <f aca="false">IF(H44=1,$C44,0)</f>
         <v>0</v>
       </c>
-      <c r="Z44" s="24" t="n">
+      <c r="Z44" s="26" t="n">
         <f aca="false">IF(I44=1,$C44,0)</f>
         <v>0</v>
       </c>
       <c r="AA44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="25" t="n">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="27" t="n">
         <v>43186</v>
       </c>
-      <c r="B45" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="28" t="n">
+      <c r="B45" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33" t="n">
+      <c r="D45" s="36"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37" t="n">
         <v>1</v>
       </c>
       <c r="J45" s="18" t="n">
@@ -4029,50 +4340,50 @@
       </c>
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
-      <c r="U45" s="24" t="n">
+      <c r="U45" s="26" t="n">
         <f aca="false">IF(D45=1,$C45,0)</f>
         <v>0</v>
       </c>
-      <c r="V45" s="24" t="n">
+      <c r="V45" s="26" t="n">
         <f aca="false">IF(E45=1,$C45,0)</f>
         <v>0</v>
       </c>
-      <c r="W45" s="24" t="n">
+      <c r="W45" s="26" t="n">
         <f aca="false">IF(F45=1,$C45,0)</f>
         <v>0</v>
       </c>
-      <c r="X45" s="24" t="n">
+      <c r="X45" s="26" t="n">
         <f aca="false">IF(G45=1,$C45,0)</f>
         <v>0</v>
       </c>
-      <c r="Y45" s="24" t="n">
+      <c r="Y45" s="26" t="n">
         <f aca="false">IF(H45=1,$C45,0)</f>
         <v>0</v>
       </c>
-      <c r="Z45" s="24" t="n">
+      <c r="Z45" s="26" t="n">
         <f aca="false">IF(I45=1,$C45,0)</f>
         <v>0.5</v>
       </c>
       <c r="AA45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="25" t="n">
+    <row r="46" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="27" t="n">
         <v>43187</v>
       </c>
-      <c r="B46" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D46" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="B46" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
       <c r="J46" s="18" t="n">
         <f aca="false">SUM(D46:I46)*100*C46</f>
         <v>100</v>
@@ -4104,50 +4415,50 @@
       </c>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="24" t="n">
+      <c r="U46" s="26" t="n">
         <f aca="false">IF(D46=1,$C46,0)</f>
         <v>1</v>
       </c>
-      <c r="V46" s="24" t="n">
+      <c r="V46" s="26" t="n">
         <f aca="false">IF(E46=1,$C46,0)</f>
         <v>0</v>
       </c>
-      <c r="W46" s="24" t="n">
+      <c r="W46" s="26" t="n">
         <f aca="false">IF(F46=1,$C46,0)</f>
         <v>0</v>
       </c>
-      <c r="X46" s="24" t="n">
+      <c r="X46" s="26" t="n">
         <f aca="false">IF(G46=1,$C46,0)</f>
         <v>0</v>
       </c>
-      <c r="Y46" s="24" t="n">
+      <c r="Y46" s="26" t="n">
         <f aca="false">IF(H46=1,$C46,0)</f>
         <v>0</v>
       </c>
-      <c r="Z46" s="24" t="n">
+      <c r="Z46" s="26" t="n">
         <f aca="false">IF(I46=1,$C46,0)</f>
         <v>0</v>
       </c>
       <c r="AA46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="n">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="27" t="n">
         <v>43192</v>
       </c>
-      <c r="B47" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C47" s="28" t="n">
+      <c r="B47" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="30" t="n">
         <v>1.5</v>
       </c>
-      <c r="D47" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="D47" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
       <c r="J47" s="18" t="n">
         <f aca="false">SUM(D47:I47)*100*C47</f>
         <v>150</v>
@@ -4179,50 +4490,50 @@
       </c>
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
-      <c r="U47" s="24" t="n">
+      <c r="U47" s="26" t="n">
         <f aca="false">IF(D47=1,$C47,0)</f>
         <v>1.5</v>
       </c>
-      <c r="V47" s="24" t="n">
+      <c r="V47" s="26" t="n">
         <f aca="false">IF(E47=1,$C47,0)</f>
         <v>0</v>
       </c>
-      <c r="W47" s="24" t="n">
+      <c r="W47" s="26" t="n">
         <f aca="false">IF(F47=1,$C47,0)</f>
         <v>0</v>
       </c>
-      <c r="X47" s="24" t="n">
+      <c r="X47" s="26" t="n">
         <f aca="false">IF(G47=1,$C47,0)</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="24" t="n">
+      <c r="Y47" s="26" t="n">
         <f aca="false">IF(H47=1,$C47,0)</f>
         <v>0</v>
       </c>
-      <c r="Z47" s="24" t="n">
+      <c r="Z47" s="26" t="n">
         <f aca="false">IF(I47=1,$C47,0)</f>
         <v>0</v>
       </c>
       <c r="AA47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="25" t="n">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="27" t="n">
         <v>43194</v>
       </c>
-      <c r="B48" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
+      <c r="B48" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
       <c r="J48" s="18" t="n">
         <f aca="false">SUM(D48:I48)*100*C48</f>
         <v>100</v>
@@ -4254,50 +4565,50 @@
       </c>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="24" t="n">
+      <c r="U48" s="26" t="n">
         <f aca="false">IF(D48=1,$C48,0)</f>
         <v>1</v>
       </c>
-      <c r="V48" s="24" t="n">
+      <c r="V48" s="26" t="n">
         <f aca="false">IF(E48=1,$C48,0)</f>
         <v>0</v>
       </c>
-      <c r="W48" s="24" t="n">
+      <c r="W48" s="26" t="n">
         <f aca="false">IF(F48=1,$C48,0)</f>
         <v>0</v>
       </c>
-      <c r="X48" s="24" t="n">
+      <c r="X48" s="26" t="n">
         <f aca="false">IF(G48=1,$C48,0)</f>
         <v>0</v>
       </c>
-      <c r="Y48" s="24" t="n">
+      <c r="Y48" s="26" t="n">
         <f aca="false">IF(H48=1,$C48,0)</f>
         <v>0</v>
       </c>
-      <c r="Z48" s="24" t="n">
+      <c r="Z48" s="26" t="n">
         <f aca="false">IF(I48=1,$C48,0)</f>
         <v>0</v>
       </c>
       <c r="AA48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="25" t="n">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="27" t="n">
         <v>43196</v>
       </c>
-      <c r="B49" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="28" t="n">
+      <c r="B49" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="30" t="n">
         <v>0.5</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
       <c r="J49" s="18" t="n">
         <f aca="false">SUM(D49:I49)*100*C49</f>
         <v>50</v>
@@ -4329,50 +4640,50 @@
       </c>
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
-      <c r="U49" s="24" t="n">
+      <c r="U49" s="26" t="n">
         <f aca="false">IF(D49=1,$C49,0)</f>
         <v>0</v>
       </c>
-      <c r="V49" s="24" t="n">
+      <c r="V49" s="26" t="n">
         <f aca="false">IF(E49=1,$C49,0)</f>
         <v>0</v>
       </c>
-      <c r="W49" s="24" t="n">
+      <c r="W49" s="26" t="n">
         <f aca="false">IF(F49=1,$C49,0)</f>
         <v>0</v>
       </c>
-      <c r="X49" s="24" t="n">
+      <c r="X49" s="26" t="n">
         <f aca="false">IF(G49=1,$C49,0)</f>
         <v>0.5</v>
       </c>
-      <c r="Y49" s="24" t="n">
+      <c r="Y49" s="26" t="n">
         <f aca="false">IF(H49=1,$C49,0)</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="24" t="n">
+      <c r="Z49" s="26" t="n">
         <f aca="false">IF(I49=1,$C49,0)</f>
         <v>0</v>
       </c>
       <c r="AA49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="n">
-        <v>43200</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D50" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="33"/>
-      <c r="F50" s="33"/>
-      <c r="G50" s="33"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="33"/>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="40" t="n">
+        <v>43199</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="J50" s="18" t="n">
         <f aca="false">SUM(D50:I50)*100*C50</f>
         <v>100</v>
@@ -4380,7 +4691,7 @@
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="n">
         <f aca="false">IF(D50=1,100*$C50,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N50" s="3" t="n">
         <f aca="false">IF(E50=1,100*$C50,0)</f>
@@ -4400,57 +4711,57 @@
       </c>
       <c r="R50" s="3" t="n">
         <f aca="false">IF(I50=1,100*$C50,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="24" t="n">
+      <c r="U50" s="26" t="n">
         <f aca="false">IF(D50=1,$C50,0)</f>
-        <v>1</v>
-      </c>
-      <c r="V50" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" s="26" t="n">
         <f aca="false">IF(E50=1,$C50,0)</f>
         <v>0</v>
       </c>
-      <c r="W50" s="24" t="n">
+      <c r="W50" s="26" t="n">
         <f aca="false">IF(F50=1,$C50,0)</f>
         <v>0</v>
       </c>
-      <c r="X50" s="24" t="n">
+      <c r="X50" s="26" t="n">
         <f aca="false">IF(G50=1,$C50,0)</f>
         <v>0</v>
       </c>
-      <c r="Y50" s="24" t="n">
+      <c r="Y50" s="26" t="n">
         <f aca="false">IF(H50=1,$C50,0)</f>
         <v>0</v>
       </c>
-      <c r="Z50" s="24" t="n">
+      <c r="Z50" s="26" t="n">
         <f aca="false">IF(I50=1,$C50,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="n">
-        <v>43200</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" s="33"/>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="40" t="n">
+        <v>43199</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37" t="n">
+        <v>1</v>
+      </c>
       <c r="J51" s="18" t="n">
         <f aca="false">SUM(D51:I51)*100*C51</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="n">
@@ -4471,945 +4782,2290 @@
       </c>
       <c r="Q51" s="3" t="n">
         <f aca="false">IF(H51=1,100*$C51,0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R51" s="3" t="n">
         <f aca="false">IF(I51=1,100*$C51,0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
-      <c r="U51" s="24" t="n">
+      <c r="U51" s="26" t="n">
         <f aca="false">IF(D51=1,$C51,0)</f>
         <v>0</v>
       </c>
-      <c r="V51" s="24" t="n">
+      <c r="V51" s="26" t="n">
         <f aca="false">IF(E51=1,$C51,0)</f>
         <v>0</v>
       </c>
-      <c r="W51" s="24" t="n">
+      <c r="W51" s="26" t="n">
         <f aca="false">IF(F51=1,$C51,0)</f>
         <v>0</v>
       </c>
-      <c r="X51" s="24" t="n">
+      <c r="X51" s="26" t="n">
         <f aca="false">IF(G51=1,$C51,0)</f>
         <v>0</v>
       </c>
-      <c r="Y51" s="24" t="n">
+      <c r="Y51" s="26" t="n">
         <f aca="false">IF(H51=1,$C51,0)</f>
-        <v>1</v>
-      </c>
-      <c r="Z51" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="26" t="n">
         <f aca="false">IF(I51=1,$C51,0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25" t="n">
-        <v>43199</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33" t="n">
-        <v>1</v>
-      </c>
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="27" t="n">
+        <v>43200</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
       <c r="J52" s="18" t="n">
-        <f aca="false">SUM(I52:I52)*100*C52</f>
+        <f aca="false">SUM(D52:I52)*100*C52</f>
         <v>100</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="n">
-        <f aca="false">IF(D51=1,100*$C51,0)</f>
-        <v>0</v>
+        <f aca="false">IF(D52=1,100*$C52,0)</f>
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="n">
-        <f aca="false">IF(E51=1,100*$C51,0)</f>
+        <f aca="false">IF(E52=1,100*$C52,0)</f>
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <f aca="false">IF(F51=1,100*$C51,0)</f>
+        <f aca="false">IF(F52=1,100*$C52,0)</f>
         <v>0</v>
       </c>
       <c r="P52" s="3" t="n">
-        <f aca="false">IF(G51=1,100*$C51,0)</f>
+        <f aca="false">IF(G52=1,100*$C52,0)</f>
         <v>0</v>
       </c>
       <c r="Q52" s="3" t="n">
-        <f aca="false">IF(H51=1,100*$C51,0)</f>
-        <v>100</v>
+        <f aca="false">IF(H52=1,100*$C52,0)</f>
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="n">
-        <f aca="false">IF(I51=1,100*$C51,0)</f>
+        <f aca="false">IF(I52=1,100*$C52,0)</f>
         <v>0</v>
       </c>
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
-      <c r="U52" s="24" t="n">
+      <c r="U52" s="26" t="n">
         <f aca="false">IF(D52=1,$C52,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V52" s="24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" s="26" t="n">
         <f aca="false">IF(E52=1,$C52,0)</f>
         <v>0</v>
       </c>
-      <c r="W52" s="24" t="n">
+      <c r="W52" s="26" t="n">
         <f aca="false">IF(F52=1,$C52,0)</f>
         <v>0</v>
       </c>
-      <c r="X52" s="24" t="n">
+      <c r="X52" s="26" t="n">
         <f aca="false">IF(G52=1,$C52,0)</f>
         <v>0</v>
       </c>
-      <c r="Y52" s="24" t="n">
+      <c r="Y52" s="26" t="n">
         <f aca="false">IF(H52=1,$C52,0)</f>
         <v>0</v>
       </c>
-      <c r="Z52" s="24" t="n">
+      <c r="Z52" s="26" t="n">
         <f aca="false">IF(I52=1,$C52,0)</f>
         <v>0</v>
       </c>
       <c r="AA52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="n">
-        <v>43199</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33" t="n">
-        <v>1</v>
-      </c>
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="27" t="n">
+        <v>43200</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="37"/>
       <c r="J53" s="18" t="n">
-        <f aca="false">SUM(I53:I53)*100*C53</f>
-        <v>150</v>
+        <f aca="false">SUM(D53:I53)*100*C53</f>
+        <v>100</v>
       </c>
       <c r="L53" s="3"/>
-      <c r="M53" s="3" t="inlineStr">
-        <f aca="false">IF(D52=1,100*$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N53" s="3" t="inlineStr">
-        <f aca="false">IF(E52=1,100*$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O53" s="3" t="inlineStr">
-        <f aca="false">IF(F52=1,100*$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P53" s="3" t="inlineStr">
-        <f aca="false">IF(G52=1,100*$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q53" s="3" t="inlineStr">
-        <f aca="false">IF(H52=1,100*$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R53" s="3" t="inlineStr">
-        <f aca="false">IF(I52=1,100*$C52,0)</f>
-        <is>
-          <t/>
-        </is>
+      <c r="M53" s="3" t="n">
+        <f aca="false">IF(D53=1,100*$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3" t="n">
+        <f aca="false">IF(E53=1,100*$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="3" t="n">
+        <f aca="false">IF(F53=1,100*$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="3" t="n">
+        <f aca="false">IF(G53=1,100*$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3" t="n">
+        <f aca="false">IF(H53=1,100*$C53,0)</f>
+        <v>100</v>
+      </c>
+      <c r="R53" s="3" t="n">
+        <f aca="false">IF(I53=1,100*$C53,0)</f>
+        <v>0</v>
       </c>
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
-      <c r="U53" s="24" t="inlineStr">
-        <f aca="false">IF(D52=1,$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V53" s="24" t="inlineStr">
-        <f aca="false">IF(E52=1,$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W53" s="24" t="inlineStr">
-        <f aca="false">IF(F52=1,$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X53" s="24" t="inlineStr">
-        <f aca="false">IF(G52=1,$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y53" s="24" t="inlineStr">
-        <f aca="false">IF(H52=1,$C52,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z53" s="24" t="inlineStr">
-        <f aca="false">IF(I52=1,$C52,0)</f>
-        <is>
-          <t/>
-        </is>
+      <c r="U53" s="26" t="n">
+        <f aca="false">IF(D53=1,$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="26" t="n">
+        <f aca="false">IF(E53=1,$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="26" t="n">
+        <f aca="false">IF(F53=1,$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="26" t="n">
+        <f aca="false">IF(G53=1,$C53,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="26" t="n">
+        <f aca="false">IF(H53=1,$C53,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Z53" s="26" t="n">
+        <f aca="false">IF(I53=1,$C53,0)</f>
+        <v>0</v>
       </c>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="25" t="n">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="40" t="n">
         <v>43201</v>
       </c>
-      <c r="B54" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="28" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33" t="n">
+      <c r="B54" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37" t="n">
         <v>1</v>
       </c>
       <c r="J54" s="18" t="n">
-        <f aca="false">SUM(I54:I54)*100*C54</f>
-        <v>75</v>
+        <f aca="false">SUM(D54:I54)*100*C54</f>
+        <v>150</v>
       </c>
       <c r="L54" s="3"/>
-      <c r="M54" s="3" t="inlineStr">
-        <f aca="false">IF(D53=1,100*$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N54" s="3" t="inlineStr">
-        <f aca="false">IF(E53=1,100*$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O54" s="3" t="inlineStr">
-        <f aca="false">IF(F53=1,100*$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="P54" s="3" t="inlineStr">
-        <f aca="false">IF(G53=1,100*$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Q54" s="3" t="inlineStr">
-        <f aca="false">IF(H53=1,100*$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="R54" s="3" t="inlineStr">
-        <f aca="false">IF(I53=1,100*$C53,0)</f>
-        <is>
-          <t/>
-        </is>
+      <c r="M54" s="3" t="n">
+        <f aca="false">IF(D54=1,100*$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="3" t="n">
+        <f aca="false">IF(E54=1,100*$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="3" t="n">
+        <f aca="false">IF(F54=1,100*$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="3" t="n">
+        <f aca="false">IF(G54=1,100*$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3" t="n">
+        <f aca="false">IF(H54=1,100*$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="3" t="n">
+        <f aca="false">IF(I54=1,100*$C54,0)</f>
+        <v>150</v>
       </c>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-      <c r="U54" s="24" t="inlineStr">
-        <f aca="false">IF(D53=1,$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V54" s="24" t="inlineStr">
-        <f aca="false">IF(E53=1,$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W54" s="24" t="inlineStr">
-        <f aca="false">IF(F53=1,$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="X54" s="24" t="inlineStr">
-        <f aca="false">IF(G53=1,$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Y54" s="24" t="inlineStr">
-        <f aca="false">IF(H53=1,$C53,0)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z54" s="24" t="inlineStr">
-        <f aca="false">IF(I53=1,$C53,0)</f>
-        <is>
-          <t/>
-        </is>
+      <c r="U54" s="26" t="n">
+        <f aca="false">IF(D54=1,$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="26" t="n">
+        <f aca="false">IF(E54=1,$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="26" t="n">
+        <f aca="false">IF(F54=1,$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="26" t="n">
+        <f aca="false">IF(G54=1,$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="26" t="n">
+        <f aca="false">IF(H54=1,$C54,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="26" t="n">
+        <f aca="false">IF(I54=1,$C54,0)</f>
+        <v>1.5</v>
       </c>
       <c r="AA54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="25"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
       <c r="J55" s="18" t="n">
         <f aca="false">SUM(D55:I55)*100*C55</f>
         <v>0</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3" t="n">
-        <f aca="false">IF(D54=1,100*$C54,0)</f>
+        <f aca="false">IF(D55=1,100*$C55,0)</f>
         <v>0</v>
       </c>
       <c r="N55" s="3" t="n">
-        <f aca="false">IF(E54=1,100*$C54,0)</f>
+        <f aca="false">IF(E55=1,100*$C55,0)</f>
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <f aca="false">IF(F54=1,100*$C54,0)</f>
+        <f aca="false">IF(F55=1,100*$C55,0)</f>
         <v>0</v>
       </c>
       <c r="P55" s="3" t="n">
-        <f aca="false">IF(G54=1,100*$C54,0)</f>
+        <f aca="false">IF(G55=1,100*$C55,0)</f>
         <v>0</v>
       </c>
       <c r="Q55" s="3" t="n">
-        <f aca="false">IF(H54=1,100*$C54,0)</f>
+        <f aca="false">IF(H55=1,100*$C55,0)</f>
         <v>0</v>
       </c>
       <c r="R55" s="3" t="n">
-        <f aca="false">IF(I54=1,100*$C54,0)</f>
+        <f aca="false">IF(I55=1,100*$C55,0)</f>
         <v>0</v>
       </c>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-      <c r="U55" s="24" t="n">
-        <f aca="false">IF(D54=1,$C54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V55" s="24" t="n">
-        <f aca="false">IF(E54=1,$C54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W55" s="24" t="n">
-        <f aca="false">IF(F54=1,$C54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X55" s="24" t="n">
-        <f aca="false">IF(G54=1,$C54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y55" s="24" t="n">
-        <f aca="false">IF(H54=1,$C54,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z55" s="24" t="n">
-        <f aca="false">IF(I54=1,$C54,0)</f>
+      <c r="U55" s="26" t="n">
+        <f aca="false">IF(D55=1,$C55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V55" s="26" t="n">
+        <f aca="false">IF(E55=1,$C55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="26" t="n">
+        <f aca="false">IF(F55=1,$C55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="26" t="n">
+        <f aca="false">IF(G55=1,$C55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="26" t="n">
+        <f aca="false">IF(H55=1,$C55,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="26" t="n">
+        <f aca="false">IF(I55=1,$C55,0)</f>
         <v>0</v>
       </c>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
       <c r="J56" s="18" t="n">
         <f aca="false">SUM(D56:I56)*100*C56</f>
         <v>0</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="n">
-        <f aca="false">IF(D55=1,100*$C55,0)</f>
+        <f aca="false">IF(D56=1,100*$C56,0)</f>
         <v>0</v>
       </c>
       <c r="N56" s="3" t="n">
-        <f aca="false">IF(E55=1,100*$C55,0)</f>
+        <f aca="false">IF(E56=1,100*$C56,0)</f>
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <f aca="false">IF(F55=1,100*$C55,0)</f>
+        <f aca="false">IF(F56=1,100*$C56,0)</f>
         <v>0</v>
       </c>
       <c r="P56" s="3" t="n">
-        <f aca="false">IF(G55=1,100*$C55,0)</f>
+        <f aca="false">IF(G56=1,100*$C56,0)</f>
         <v>0</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <f aca="false">IF(H55=1,100*$C55,0)</f>
+        <f aca="false">IF(H56=1,100*$C56,0)</f>
         <v>0</v>
       </c>
       <c r="R56" s="3" t="n">
-        <f aca="false">IF(I55=1,100*$C55,0)</f>
+        <f aca="false">IF(I56=1,100*$C56,0)</f>
         <v>0</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-      <c r="U56" s="24" t="n">
-        <f aca="false">IF(D55=1,$C55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V56" s="24" t="n">
-        <f aca="false">IF(E55=1,$C55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="24" t="n">
-        <f aca="false">IF(F55=1,$C55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X56" s="24" t="n">
-        <f aca="false">IF(G55=1,$C55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y56" s="24" t="n">
-        <f aca="false">IF(H55=1,$C55,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z56" s="24" t="n">
-        <f aca="false">IF(I55=1,$C55,0)</f>
+      <c r="U56" s="26" t="n">
+        <f aca="false">IF(D56=1,$C56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="26" t="n">
+        <f aca="false">IF(E56=1,$C56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="26" t="n">
+        <f aca="false">IF(F56=1,$C56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="26" t="n">
+        <f aca="false">IF(G56=1,$C56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="26" t="n">
+        <f aca="false">IF(H56=1,$C56,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="26" t="n">
+        <f aca="false">IF(I56=1,$C56,0)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
       <c r="J57" s="18" t="n">
         <f aca="false">SUM(D57:I57)*100*C57</f>
         <v>0</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="n">
-        <f aca="false">IF(D56=1,100*$C56,0)</f>
+        <f aca="false">IF(D57=1,100*$C57,0)</f>
         <v>0</v>
       </c>
       <c r="N57" s="3" t="n">
-        <f aca="false">IF(E56=1,100*$C56,0)</f>
+        <f aca="false">IF(E57=1,100*$C57,0)</f>
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <f aca="false">IF(F56=1,100*$C56,0)</f>
+        <f aca="false">IF(F57=1,100*$C57,0)</f>
         <v>0</v>
       </c>
       <c r="P57" s="3" t="n">
-        <f aca="false">IF(G56=1,100*$C56,0)</f>
+        <f aca="false">IF(G57=1,100*$C57,0)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="3" t="n">
-        <f aca="false">IF(H56=1,100*$C56,0)</f>
+        <f aca="false">IF(H57=1,100*$C57,0)</f>
         <v>0</v>
       </c>
       <c r="R57" s="3" t="n">
-        <f aca="false">IF(I56=1,100*$C56,0)</f>
+        <f aca="false">IF(I57=1,100*$C57,0)</f>
         <v>0</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
-      <c r="U57" s="24" t="n">
-        <f aca="false">IF(D56=1,$C56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="24" t="n">
-        <f aca="false">IF(E56=1,$C56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W57" s="24" t="n">
-        <f aca="false">IF(F56=1,$C56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X57" s="24" t="n">
-        <f aca="false">IF(G56=1,$C56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y57" s="24" t="n">
-        <f aca="false">IF(H56=1,$C56,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="24" t="n">
-        <f aca="false">IF(I56=1,$C56,0)</f>
+      <c r="U57" s="26" t="n">
+        <f aca="false">IF(D57=1,$C57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="26" t="n">
+        <f aca="false">IF(E57=1,$C57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="26" t="n">
+        <f aca="false">IF(F57=1,$C57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="26" t="n">
+        <f aca="false">IF(G57=1,$C57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="26" t="n">
+        <f aca="false">IF(H57=1,$C57,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="26" t="n">
+        <f aca="false">IF(I57=1,$C57,0)</f>
         <v>0</v>
       </c>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="33"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
       <c r="J58" s="18" t="n">
         <f aca="false">SUM(D58:I58)*100*C58</f>
         <v>0</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="n">
-        <f aca="false">IF(D57=1,100*$C57,0)</f>
+        <f aca="false">IF(D58=1,100*$C58,0)</f>
         <v>0</v>
       </c>
       <c r="N58" s="3" t="n">
-        <f aca="false">IF(E57=1,100*$C57,0)</f>
+        <f aca="false">IF(E58=1,100*$C58,0)</f>
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <f aca="false">IF(F57=1,100*$C57,0)</f>
+        <f aca="false">IF(F58=1,100*$C58,0)</f>
         <v>0</v>
       </c>
       <c r="P58" s="3" t="n">
-        <f aca="false">IF(G57=1,100*$C57,0)</f>
+        <f aca="false">IF(G58=1,100*$C58,0)</f>
         <v>0</v>
       </c>
       <c r="Q58" s="3" t="n">
-        <f aca="false">IF(H57=1,100*$C57,0)</f>
+        <f aca="false">IF(H58=1,100*$C58,0)</f>
         <v>0</v>
       </c>
       <c r="R58" s="3" t="n">
-        <f aca="false">IF(I57=1,100*$C57,0)</f>
+        <f aca="false">IF(I58=1,100*$C58,0)</f>
         <v>0</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="24" t="n">
-        <f aca="false">IF(D57=1,$C57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V58" s="24" t="n">
-        <f aca="false">IF(E57=1,$C57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W58" s="24" t="n">
-        <f aca="false">IF(F57=1,$C57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X58" s="24" t="n">
-        <f aca="false">IF(G57=1,$C57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="24" t="n">
-        <f aca="false">IF(H57=1,$C57,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z58" s="24" t="n">
-        <f aca="false">IF(I57=1,$C57,0)</f>
+      <c r="U58" s="26" t="n">
+        <f aca="false">IF(D58=1,$C58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="26" t="n">
+        <f aca="false">IF(E58=1,$C58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="26" t="n">
+        <f aca="false">IF(F58=1,$C58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X58" s="26" t="n">
+        <f aca="false">IF(G58=1,$C58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="26" t="n">
+        <f aca="false">IF(H58=1,$C58,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z58" s="26" t="n">
+        <f aca="false">IF(I58=1,$C58,0)</f>
         <v>0</v>
       </c>
       <c r="AA58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
       <c r="J59" s="18" t="n">
         <f aca="false">SUM(D59:I59)*100*C59</f>
         <v>0</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="n">
-        <f aca="false">IF(D58=1,100*$C58,0)</f>
+        <f aca="false">IF(D59=1,100*$C59,0)</f>
         <v>0</v>
       </c>
       <c r="N59" s="3" t="n">
-        <f aca="false">IF(E58=1,100*$C58,0)</f>
+        <f aca="false">IF(E59=1,100*$C59,0)</f>
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <f aca="false">IF(F58=1,100*$C58,0)</f>
+        <f aca="false">IF(F59=1,100*$C59,0)</f>
         <v>0</v>
       </c>
       <c r="P59" s="3" t="n">
-        <f aca="false">IF(G58=1,100*$C58,0)</f>
+        <f aca="false">IF(G59=1,100*$C59,0)</f>
         <v>0</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <f aca="false">IF(H58=1,100*$C58,0)</f>
+        <f aca="false">IF(H59=1,100*$C59,0)</f>
         <v>0</v>
       </c>
       <c r="R59" s="3" t="n">
-        <f aca="false">IF(I58=1,100*$C58,0)</f>
+        <f aca="false">IF(I59=1,100*$C59,0)</f>
         <v>0</v>
       </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
-      <c r="U59" s="24" t="n">
-        <f aca="false">IF(D58=1,$C58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V59" s="24" t="n">
-        <f aca="false">IF(E58=1,$C58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W59" s="24" t="n">
-        <f aca="false">IF(F58=1,$C58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X59" s="24" t="n">
-        <f aca="false">IF(G58=1,$C58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="24" t="n">
-        <f aca="false">IF(H58=1,$C58,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z59" s="24" t="n">
-        <f aca="false">IF(I58=1,$C58,0)</f>
+      <c r="U59" s="26" t="n">
+        <f aca="false">IF(D59=1,$C59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="26" t="n">
+        <f aca="false">IF(E59=1,$C59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="26" t="n">
+        <f aca="false">IF(F59=1,$C59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="26" t="n">
+        <f aca="false">IF(G59=1,$C59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="26" t="n">
+        <f aca="false">IF(H59=1,$C59,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="26" t="n">
+        <f aca="false">IF(I59=1,$C59,0)</f>
         <v>0</v>
       </c>
       <c r="AA59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
       <c r="J60" s="18" t="n">
         <f aca="false">SUM(D60:I60)*100*C60</f>
         <v>0</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="n">
-        <f aca="false">IF(D59=1,100*$C59,0)</f>
+        <f aca="false">IF(D60=1,100*$C60,0)</f>
         <v>0</v>
       </c>
       <c r="N60" s="3" t="n">
-        <f aca="false">IF(E59=1,100*$C59,0)</f>
+        <f aca="false">IF(E60=1,100*$C60,0)</f>
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <f aca="false">IF(F59=1,100*$C59,0)</f>
+        <f aca="false">IF(F60=1,100*$C60,0)</f>
         <v>0</v>
       </c>
       <c r="P60" s="3" t="n">
-        <f aca="false">IF(G59=1,100*$C59,0)</f>
+        <f aca="false">IF(G60=1,100*$C60,0)</f>
         <v>0</v>
       </c>
       <c r="Q60" s="3" t="n">
-        <f aca="false">IF(H59=1,100*$C59,0)</f>
+        <f aca="false">IF(H60=1,100*$C60,0)</f>
         <v>0</v>
       </c>
       <c r="R60" s="3" t="n">
-        <f aca="false">IF(I59=1,100*$C59,0)</f>
+        <f aca="false">IF(I60=1,100*$C60,0)</f>
         <v>0</v>
       </c>
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
-      <c r="U60" s="24" t="n">
-        <f aca="false">IF(D59=1,$C59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V60" s="24" t="n">
-        <f aca="false">IF(E59=1,$C59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W60" s="24" t="n">
-        <f aca="false">IF(F59=1,$C59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X60" s="24" t="n">
-        <f aca="false">IF(G59=1,$C59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="24" t="n">
-        <f aca="false">IF(H59=1,$C59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z60" s="24" t="n">
-        <f aca="false">IF(I59=1,$C59,0)</f>
+      <c r="U60" s="26" t="n">
+        <f aca="false">IF(D60=1,$C60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="26" t="n">
+        <f aca="false">IF(E60=1,$C60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="26" t="n">
+        <f aca="false">IF(F60=1,$C60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X60" s="26" t="n">
+        <f aca="false">IF(G60=1,$C60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="26" t="n">
+        <f aca="false">IF(H60=1,$C60,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z60" s="26" t="n">
+        <f aca="false">IF(I60=1,$C60,0)</f>
         <v>0</v>
       </c>
       <c r="AA60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="33"/>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
       <c r="J61" s="18" t="n">
         <f aca="false">SUM(D61:I61)*100*C61</f>
         <v>0</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="n">
-        <f aca="false">IF(D60=1,100*$C60,0)</f>
+        <f aca="false">IF(D61=1,100*$C61,0)</f>
         <v>0</v>
       </c>
       <c r="N61" s="3" t="n">
-        <f aca="false">IF(E60=1,100*$C60,0)</f>
+        <f aca="false">IF(E61=1,100*$C61,0)</f>
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <f aca="false">IF(F60=1,100*$C60,0)</f>
+        <f aca="false">IF(F61=1,100*$C61,0)</f>
         <v>0</v>
       </c>
       <c r="P61" s="3" t="n">
-        <f aca="false">IF(G60=1,100*$C60,0)</f>
+        <f aca="false">IF(G61=1,100*$C61,0)</f>
         <v>0</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <f aca="false">IF(H60=1,100*$C60,0)</f>
+        <f aca="false">IF(H61=1,100*$C61,0)</f>
         <v>0</v>
       </c>
       <c r="R61" s="3" t="n">
-        <f aca="false">IF(I60=1,100*$C60,0)</f>
+        <f aca="false">IF(I61=1,100*$C61,0)</f>
         <v>0</v>
       </c>
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
-      <c r="U61" s="24" t="n">
-        <f aca="false">IF(D60=1,$C60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V61" s="24" t="n">
-        <f aca="false">IF(E60=1,$C60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W61" s="24" t="n">
-        <f aca="false">IF(F60=1,$C60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X61" s="24" t="n">
-        <f aca="false">IF(G60=1,$C60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="24" t="n">
-        <f aca="false">IF(H60=1,$C60,0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z61" s="24" t="n">
-        <f aca="false">IF(I60=1,$C60,0)</f>
+      <c r="U61" s="26" t="n">
+        <f aca="false">IF(D61=1,$C61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V61" s="26" t="n">
+        <f aca="false">IF(E61=1,$C61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W61" s="26" t="n">
+        <f aca="false">IF(F61=1,$C61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X61" s="26" t="n">
+        <f aca="false">IF(G61=1,$C61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="26" t="n">
+        <f aca="false">IF(H61=1,$C61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="26" t="n">
+        <f aca="false">IF(I61=1,$C61,0)</f>
         <v>0</v>
       </c>
       <c r="AA61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36"/>
-      <c r="B62" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="38" t="n">
-        <f aca="false">SUM(C3:C61)</f>
-        <v>56.25</v>
-      </c>
-      <c r="D62" s="39" t="n">
-        <f aca="false">U$62</f>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="18" t="n">
+        <f aca="false">SUM(D62:I62)*100*C62</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3" t="n">
+        <f aca="false">IF(D62=1,100*$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="n">
+        <f aca="false">IF(E62=1,100*$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="n">
+        <f aca="false">IF(F62=1,100*$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="n">
+        <f aca="false">IF(G62=1,100*$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="n">
+        <f aca="false">IF(H62=1,100*$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="n">
+        <f aca="false">IF(I62=1,100*$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="26" t="n">
+        <f aca="false">IF(D62=1,$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="26" t="n">
+        <f aca="false">IF(E62=1,$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W62" s="26" t="n">
+        <f aca="false">IF(F62=1,$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X62" s="26" t="n">
+        <f aca="false">IF(G62=1,$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="26" t="n">
+        <f aca="false">IF(H62=1,$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z62" s="26" t="n">
+        <f aca="false">IF(I62=1,$C62,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="18" t="n">
+        <f aca="false">SUM(D63:I63)*100*C63</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3" t="n">
+        <f aca="false">IF(D63=1,100*$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3" t="n">
+        <f aca="false">IF(E63=1,100*$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="3" t="n">
+        <f aca="false">IF(F63=1,100*$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P63" s="3" t="n">
+        <f aca="false">IF(G63=1,100*$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3" t="n">
+        <f aca="false">IF(H63=1,100*$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R63" s="3" t="n">
+        <f aca="false">IF(I63=1,100*$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="26" t="n">
+        <f aca="false">IF(D63=1,$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V63" s="26" t="n">
+        <f aca="false">IF(E63=1,$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W63" s="26" t="n">
+        <f aca="false">IF(F63=1,$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X63" s="26" t="n">
+        <f aca="false">IF(G63=1,$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="26" t="n">
+        <f aca="false">IF(H63=1,$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="26" t="n">
+        <f aca="false">IF(I63=1,$C63,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="18" t="n">
+        <f aca="false">SUM(D64:I64)*100*C64</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3" t="n">
+        <f aca="false">IF(D64=1,100*$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="3" t="n">
+        <f aca="false">IF(E64=1,100*$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O64" s="3" t="n">
+        <f aca="false">IF(F64=1,100*$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P64" s="3" t="n">
+        <f aca="false">IF(G64=1,100*$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3" t="n">
+        <f aca="false">IF(H64=1,100*$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="3" t="n">
+        <f aca="false">IF(I64=1,100*$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="26" t="n">
+        <f aca="false">IF(D64=1,$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="26" t="n">
+        <f aca="false">IF(E64=1,$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W64" s="26" t="n">
+        <f aca="false">IF(F64=1,$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X64" s="26" t="n">
+        <f aca="false">IF(G64=1,$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y64" s="26" t="n">
+        <f aca="false">IF(H64=1,$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z64" s="26" t="n">
+        <f aca="false">IF(I64=1,$C64,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="18" t="n">
+        <f aca="false">SUM(D65:I65)*100*C65</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3" t="n">
+        <f aca="false">IF(D65=1,100*$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="3" t="n">
+        <f aca="false">IF(E65=1,100*$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O65" s="3" t="n">
+        <f aca="false">IF(F65=1,100*$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P65" s="3" t="n">
+        <f aca="false">IF(G65=1,100*$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3" t="n">
+        <f aca="false">IF(H65=1,100*$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R65" s="3" t="n">
+        <f aca="false">IF(I65=1,100*$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="26" t="n">
+        <f aca="false">IF(D65=1,$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V65" s="26" t="n">
+        <f aca="false">IF(E65=1,$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W65" s="26" t="n">
+        <f aca="false">IF(F65=1,$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X65" s="26" t="n">
+        <f aca="false">IF(G65=1,$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="26" t="n">
+        <f aca="false">IF(H65=1,$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="26" t="n">
+        <f aca="false">IF(I65=1,$C65,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3"/>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="18" t="n">
+        <f aca="false">SUM(D66:I66)*100*C66</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3" t="n">
+        <f aca="false">IF(D66=1,100*$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3" t="n">
+        <f aca="false">IF(E66=1,100*$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="3" t="n">
+        <f aca="false">IF(F66=1,100*$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P66" s="3" t="n">
+        <f aca="false">IF(G66=1,100*$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3" t="n">
+        <f aca="false">IF(H66=1,100*$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="3" t="n">
+        <f aca="false">IF(I66=1,100*$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="26" t="n">
+        <f aca="false">IF(D66=1,$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="26" t="n">
+        <f aca="false">IF(E66=1,$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W66" s="26" t="n">
+        <f aca="false">IF(F66=1,$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X66" s="26" t="n">
+        <f aca="false">IF(G66=1,$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="26" t="n">
+        <f aca="false">IF(H66=1,$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="26" t="n">
+        <f aca="false">IF(I66=1,$C66,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="18" t="n">
+        <f aca="false">SUM(D67:I67)*100*C67</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3" t="n">
+        <f aca="false">IF(D67=1,100*$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="3" t="n">
+        <f aca="false">IF(E67=1,100*$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O67" s="3" t="n">
+        <f aca="false">IF(F67=1,100*$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P67" s="3" t="n">
+        <f aca="false">IF(G67=1,100*$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3" t="n">
+        <f aca="false">IF(H67=1,100*$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R67" s="3" t="n">
+        <f aca="false">IF(I67=1,100*$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="26" t="n">
+        <f aca="false">IF(D67=1,$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="26" t="n">
+        <f aca="false">IF(E67=1,$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W67" s="26" t="n">
+        <f aca="false">IF(F67=1,$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X67" s="26" t="n">
+        <f aca="false">IF(G67=1,$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="26" t="n">
+        <f aca="false">IF(H67=1,$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z67" s="26" t="n">
+        <f aca="false">IF(I67=1,$C67,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="42"/>
+    </row>
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="18" t="n">
+        <f aca="false">SUM(D68:I68)*100*C68</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3" t="n">
+        <f aca="false">IF(D68=1,100*$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="3" t="n">
+        <f aca="false">IF(E68=1,100*$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="3" t="n">
+        <f aca="false">IF(F68=1,100*$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P68" s="3" t="n">
+        <f aca="false">IF(G68=1,100*$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3" t="n">
+        <f aca="false">IF(H68=1,100*$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="3" t="n">
+        <f aca="false">IF(I68=1,100*$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="26" t="n">
+        <f aca="false">IF(D68=1,$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="26" t="n">
+        <f aca="false">IF(E68=1,$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W68" s="26" t="n">
+        <f aca="false">IF(F68=1,$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X68" s="26" t="n">
+        <f aca="false">IF(G68=1,$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y68" s="26" t="n">
+        <f aca="false">IF(H68=1,$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z68" s="26" t="n">
+        <f aca="false">IF(I68=1,$C68,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="18" t="n">
+        <f aca="false">SUM(D69:I69)*100*C69</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3" t="n">
+        <f aca="false">IF(D69=1,100*$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="3" t="n">
+        <f aca="false">IF(E69=1,100*$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="3" t="n">
+        <f aca="false">IF(F69=1,100*$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P69" s="3" t="n">
+        <f aca="false">IF(G69=1,100*$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3" t="n">
+        <f aca="false">IF(H69=1,100*$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R69" s="3" t="n">
+        <f aca="false">IF(I69=1,100*$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="26" t="n">
+        <f aca="false">IF(D69=1,$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V69" s="26" t="n">
+        <f aca="false">IF(E69=1,$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W69" s="26" t="n">
+        <f aca="false">IF(F69=1,$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X69" s="26" t="n">
+        <f aca="false">IF(G69=1,$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y69" s="26" t="n">
+        <f aca="false">IF(H69=1,$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z69" s="26" t="n">
+        <f aca="false">IF(I69=1,$C69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="18" t="n">
+        <f aca="false">SUM(D70:I70)*100*C70</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3" t="n">
+        <f aca="false">IF(D70=1,100*$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="3" t="n">
+        <f aca="false">IF(E70=1,100*$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O70" s="3" t="n">
+        <f aca="false">IF(F70=1,100*$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P70" s="3" t="n">
+        <f aca="false">IF(G70=1,100*$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3" t="n">
+        <f aca="false">IF(H70=1,100*$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="3" t="n">
+        <f aca="false">IF(I70=1,100*$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="26" t="n">
+        <f aca="false">IF(D70=1,$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="26" t="n">
+        <f aca="false">IF(E70=1,$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W70" s="26" t="n">
+        <f aca="false">IF(F70=1,$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X70" s="26" t="n">
+        <f aca="false">IF(G70=1,$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y70" s="26" t="n">
+        <f aca="false">IF(H70=1,$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z70" s="26" t="n">
+        <f aca="false">IF(I70=1,$C70,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3"/>
+    </row>
+    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="18" t="n">
+        <f aca="false">SUM(D71:I71)*100*C71</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3" t="n">
+        <f aca="false">IF(D71=1,100*$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="3" t="n">
+        <f aca="false">IF(E71=1,100*$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O71" s="3" t="n">
+        <f aca="false">IF(F71=1,100*$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P71" s="3" t="n">
+        <f aca="false">IF(G71=1,100*$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3" t="n">
+        <f aca="false">IF(H71=1,100*$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R71" s="3" t="n">
+        <f aca="false">IF(I71=1,100*$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="26" t="n">
+        <f aca="false">IF(D71=1,$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V71" s="26" t="n">
+        <f aca="false">IF(E71=1,$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W71" s="26" t="n">
+        <f aca="false">IF(F71=1,$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X71" s="26" t="n">
+        <f aca="false">IF(G71=1,$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="26" t="n">
+        <f aca="false">IF(H71=1,$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="26" t="n">
+        <f aca="false">IF(I71=1,$C71,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="18" t="n">
+        <f aca="false">SUM(D72:I72)*100*C72</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3" t="n">
+        <f aca="false">IF(D72=1,100*$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="3" t="n">
+        <f aca="false">IF(E72=1,100*$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O72" s="3" t="n">
+        <f aca="false">IF(F72=1,100*$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P72" s="3" t="n">
+        <f aca="false">IF(G72=1,100*$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="3" t="n">
+        <f aca="false">IF(H72=1,100*$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="3" t="n">
+        <f aca="false">IF(I72=1,100*$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="26" t="n">
+        <f aca="false">IF(D72=1,$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V72" s="26" t="n">
+        <f aca="false">IF(E72=1,$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W72" s="26" t="n">
+        <f aca="false">IF(F72=1,$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X72" s="26" t="n">
+        <f aca="false">IF(G72=1,$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="26" t="n">
+        <f aca="false">IF(H72=1,$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="26" t="n">
+        <f aca="false">IF(I72=1,$C72,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3"/>
+    </row>
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="40"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="18" t="n">
+        <f aca="false">SUM(D73:I73)*100*C73</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3" t="n">
+        <f aca="false">IF(D73=1,100*$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="3" t="n">
+        <f aca="false">IF(E73=1,100*$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O73" s="3" t="n">
+        <f aca="false">IF(F73=1,100*$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P73" s="3" t="n">
+        <f aca="false">IF(G73=1,100*$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3" t="n">
+        <f aca="false">IF(H73=1,100*$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R73" s="3" t="n">
+        <f aca="false">IF(I73=1,100*$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="26" t="n">
+        <f aca="false">IF(D73=1,$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V73" s="26" t="n">
+        <f aca="false">IF(E73=1,$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W73" s="26" t="n">
+        <f aca="false">IF(F73=1,$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X73" s="26" t="n">
+        <f aca="false">IF(G73=1,$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y73" s="26" t="n">
+        <f aca="false">IF(H73=1,$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z73" s="26" t="n">
+        <f aca="false">IF(I73=1,$C73,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3"/>
+    </row>
+    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="18" t="n">
+        <f aca="false">SUM(D74:I74)*100*C74</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3" t="n">
+        <f aca="false">IF(D74=1,100*$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="3" t="n">
+        <f aca="false">IF(E74=1,100*$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O74" s="3" t="n">
+        <f aca="false">IF(F74=1,100*$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P74" s="3" t="n">
+        <f aca="false">IF(G74=1,100*$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3" t="n">
+        <f aca="false">IF(H74=1,100*$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="3" t="n">
+        <f aca="false">IF(I74=1,100*$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="26" t="n">
+        <f aca="false">IF(D74=1,$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V74" s="26" t="n">
+        <f aca="false">IF(E74=1,$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W74" s="26" t="n">
+        <f aca="false">IF(F74=1,$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X74" s="26" t="n">
+        <f aca="false">IF(G74=1,$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y74" s="26" t="n">
+        <f aca="false">IF(H74=1,$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z74" s="26" t="n">
+        <f aca="false">IF(I74=1,$C74,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="40"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="18" t="n">
+        <f aca="false">SUM(D75:I75)*100*C75</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3" t="n">
+        <f aca="false">IF(D75=1,100*$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="3" t="n">
+        <f aca="false">IF(E75=1,100*$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O75" s="3" t="n">
+        <f aca="false">IF(F75=1,100*$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P75" s="3" t="n">
+        <f aca="false">IF(G75=1,100*$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3" t="n">
+        <f aca="false">IF(H75=1,100*$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="3" t="n">
+        <f aca="false">IF(I75=1,100*$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="26" t="n">
+        <f aca="false">IF(D75=1,$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V75" s="26" t="n">
+        <f aca="false">IF(E75=1,$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="26" t="n">
+        <f aca="false">IF(F75=1,$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X75" s="26" t="n">
+        <f aca="false">IF(G75=1,$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y75" s="26" t="n">
+        <f aca="false">IF(H75=1,$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="26" t="n">
+        <f aca="false">IF(I75=1,$C75,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="27"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="18" t="n">
+        <f aca="false">SUM(D76:I76)*100*C76</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3" t="n">
+        <f aca="false">IF(D76=1,100*$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="3" t="n">
+        <f aca="false">IF(E76=1,100*$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O76" s="3" t="n">
+        <f aca="false">IF(F76=1,100*$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P76" s="3" t="n">
+        <f aca="false">IF(G76=1,100*$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3" t="n">
+        <f aca="false">IF(H76=1,100*$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="3" t="n">
+        <f aca="false">IF(I76=1,100*$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="26" t="n">
+        <f aca="false">IF(D76=1,$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V76" s="26" t="n">
+        <f aca="false">IF(E76=1,$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="26" t="n">
+        <f aca="false">IF(F76=1,$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X76" s="26" t="n">
+        <f aca="false">IF(G76=1,$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="26" t="n">
+        <f aca="false">IF(H76=1,$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="26" t="n">
+        <f aca="false">IF(I76=1,$C76,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="27"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="18" t="n">
+        <f aca="false">SUM(D77:I77)*100*C77</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3" t="n">
+        <f aca="false">IF(D77=1,100*$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="3" t="n">
+        <f aca="false">IF(E77=1,100*$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O77" s="3" t="n">
+        <f aca="false">IF(F77=1,100*$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P77" s="3" t="n">
+        <f aca="false">IF(G77=1,100*$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3" t="n">
+        <f aca="false">IF(H77=1,100*$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R77" s="3" t="n">
+        <f aca="false">IF(I77=1,100*$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T77" s="3"/>
+      <c r="U77" s="26" t="n">
+        <f aca="false">IF(D77=1,$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V77" s="26" t="n">
+        <f aca="false">IF(E77=1,$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W77" s="26" t="n">
+        <f aca="false">IF(F77=1,$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X77" s="26" t="n">
+        <f aca="false">IF(G77=1,$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="26" t="n">
+        <f aca="false">IF(H77=1,$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="26" t="n">
+        <f aca="false">IF(I77=1,$C77,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="27"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="18" t="n">
+        <f aca="false">SUM(D78:I78)*100*C78</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3" t="n">
+        <f aca="false">IF(D78=1,100*$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="3" t="n">
+        <f aca="false">IF(E78=1,100*$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O78" s="3" t="n">
+        <f aca="false">IF(F78=1,100*$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P78" s="3" t="n">
+        <f aca="false">IF(G78=1,100*$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3" t="n">
+        <f aca="false">IF(H78=1,100*$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="3" t="n">
+        <f aca="false">IF(I78=1,100*$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="42" t="n">
+        <f aca="false">S83-S43</f>
+        <v>1550</v>
+      </c>
+      <c r="T78" s="3"/>
+      <c r="U78" s="26" t="n">
+        <f aca="false">IF(D78=1,$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V78" s="26" t="n">
+        <f aca="false">IF(E78=1,$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W78" s="26" t="n">
+        <f aca="false">IF(F78=1,$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X78" s="26" t="n">
+        <f aca="false">IF(G78=1,$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y78" s="26" t="n">
+        <f aca="false">IF(H78=1,$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="26" t="n">
+        <f aca="false">IF(I78=1,$C78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA78" s="43" t="n">
+        <f aca="false">AA83-AA43</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="27"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="18" t="n">
+        <f aca="false">SUM(D79:I79)*100*C79</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3" t="n">
+        <f aca="false">IF(D79=1,100*$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="3" t="n">
+        <f aca="false">IF(E79=1,100*$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O79" s="3" t="n">
+        <f aca="false">IF(F79=1,100*$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P79" s="3" t="n">
+        <f aca="false">IF(G79=1,100*$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q79" s="3" t="n">
+        <f aca="false">IF(H79=1,100*$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="3" t="n">
+        <f aca="false">IF(I79=1,100*$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="26" t="n">
+        <f aca="false">IF(D79=1,$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V79" s="26" t="n">
+        <f aca="false">IF(E79=1,$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W79" s="26" t="n">
+        <f aca="false">IF(F79=1,$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X79" s="26" t="n">
+        <f aca="false">IF(G79=1,$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="26" t="n">
+        <f aca="false">IF(H79=1,$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="26" t="n">
+        <f aca="false">IF(I79=1,$C79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="27"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="18" t="n">
+        <f aca="false">SUM(D80:I80)*100*C80</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3" t="n">
+        <f aca="false">IF(D80=1,100*$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="3" t="n">
+        <f aca="false">IF(E80=1,100*$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O80" s="3" t="n">
+        <f aca="false">IF(F80=1,100*$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P80" s="3" t="n">
+        <f aca="false">IF(G80=1,100*$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="3" t="n">
+        <f aca="false">IF(H80=1,100*$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="3" t="n">
+        <f aca="false">IF(I80=1,100*$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="26" t="n">
+        <f aca="false">IF(D80=1,$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="26" t="n">
+        <f aca="false">IF(E80=1,$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W80" s="26" t="n">
+        <f aca="false">IF(F80=1,$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="26" t="n">
+        <f aca="false">IF(G80=1,$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="26" t="n">
+        <f aca="false">IF(H80=1,$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="26" t="n">
+        <f aca="false">IF(I80=1,$C80,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="27"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="18" t="n">
+        <f aca="false">SUM(D81:I81)*100*C81</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3" t="n">
+        <f aca="false">IF(D81=1,100*$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="3" t="n">
+        <f aca="false">IF(E81=1,100*$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O81" s="3" t="n">
+        <f aca="false">IF(F81=1,100*$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P81" s="3" t="n">
+        <f aca="false">IF(G81=1,100*$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3" t="n">
+        <f aca="false">IF(H81=1,100*$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R81" s="3" t="n">
+        <f aca="false">IF(I81=1,100*$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="26" t="n">
+        <f aca="false">IF(D81=1,$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V81" s="26" t="n">
+        <f aca="false">IF(E81=1,$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W81" s="26" t="n">
+        <f aca="false">IF(F81=1,$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X81" s="26" t="n">
+        <f aca="false">IF(G81=1,$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="26" t="n">
+        <f aca="false">IF(H81=1,$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="26" t="n">
+        <f aca="false">IF(I81=1,$C81,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3"/>
+    </row>
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="27"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="18" t="n">
+        <f aca="false">SUM(D82:I82)*100*C82</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3" t="n">
+        <f aca="false">IF(D82=1,100*$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="3" t="n">
+        <f aca="false">IF(E82=1,100*$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O82" s="3" t="n">
+        <f aca="false">IF(F82=1,100*$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P82" s="3" t="n">
+        <f aca="false">IF(G82=1,100*$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3" t="n">
+        <f aca="false">IF(H82=1,100*$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="3" t="n">
+        <f aca="false">IF(I82=1,100*$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="26" t="n">
+        <f aca="false">IF(D82=1,$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V82" s="26" t="n">
+        <f aca="false">IF(E82=1,$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="26" t="n">
+        <f aca="false">IF(F82=1,$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="26" t="n">
+        <f aca="false">IF(G82=1,$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="26" t="n">
+        <f aca="false">IF(H82=1,$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="26" t="n">
+        <f aca="false">IF(I82=1,$C82,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="44"/>
+      <c r="B83" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="46" t="n">
+        <f aca="false">SUM(C3:C82)</f>
+        <v>60.25</v>
+      </c>
+      <c r="D83" s="47" t="n">
+        <f aca="false">U$83</f>
         <v>19.25</v>
       </c>
-      <c r="E62" s="39" t="n">
-        <f aca="false">V$62</f>
+      <c r="E83" s="47" t="n">
+        <f aca="false">V$83</f>
         <v>14.5</v>
       </c>
-      <c r="F62" s="39" t="n">
-        <f aca="false">W$62</f>
+      <c r="F83" s="47" t="n">
+        <f aca="false">W$83</f>
         <v>2.5</v>
       </c>
-      <c r="G62" s="39" t="n">
-        <f aca="false">X$62</f>
+      <c r="G83" s="47" t="n">
+        <f aca="false">X$83</f>
         <v>8</v>
       </c>
-      <c r="H62" s="39" t="n">
-        <f aca="false">Y$62</f>
-        <v>5.5</v>
-      </c>
-      <c r="I62" s="39" t="n">
-        <f aca="false">Z$62</f>
+      <c r="H83" s="47" t="n">
+        <f aca="false">Y$83</f>
+        <v>6.5</v>
+      </c>
+      <c r="I83" s="47" t="n">
+        <f aca="false">Z$83</f>
+        <v>16</v>
+      </c>
+      <c r="J83" s="48" t="n">
+        <f aca="false">SUM(J3:J82)</f>
+        <v>6675</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M83" s="42" t="n">
+        <f aca="false">SUM(M3:M82)</f>
+        <v>1925</v>
+      </c>
+      <c r="N83" s="42" t="n">
+        <f aca="false">SUM(N3:N82)</f>
+        <v>1450</v>
+      </c>
+      <c r="O83" s="42" t="n">
+        <f aca="false">SUM(O3:O82)</f>
+        <v>250</v>
+      </c>
+      <c r="P83" s="42" t="n">
+        <f aca="false">SUM(P3:P82)</f>
+        <v>800</v>
+      </c>
+      <c r="Q83" s="42" t="n">
+        <f aca="false">SUM(Q3:Q82)</f>
+        <v>650</v>
+      </c>
+      <c r="R83" s="42" t="n">
+        <f aca="false">SUM(R3:R82)</f>
+        <v>1600</v>
+      </c>
+      <c r="S83" s="42" t="n">
+        <f aca="false">SUM(M83:R83)</f>
+        <v>6675</v>
+      </c>
+      <c r="T83" s="3"/>
+      <c r="U83" s="26" t="n">
+        <f aca="false">SUM(U4:U82)</f>
+        <v>19.25</v>
+      </c>
+      <c r="V83" s="26" t="n">
+        <f aca="false">SUM(V4:V82)</f>
+        <v>14.5</v>
+      </c>
+      <c r="W83" s="26" t="n">
+        <f aca="false">SUM(W4:W82)</f>
+        <v>2.5</v>
+      </c>
+      <c r="X83" s="26" t="n">
+        <f aca="false">SUM(X4:X82)</f>
+        <v>8</v>
+      </c>
+      <c r="Y83" s="26" t="n">
+        <f aca="false">SUM(Y4:Y82)</f>
+        <v>6.5</v>
+      </c>
+      <c r="Z83" s="26" t="n">
+        <f aca="false">SUM(Z4:Z82)</f>
+        <v>16</v>
+      </c>
+      <c r="AA83" s="26" t="n">
+        <f aca="false">SUM(U83:Z83)</f>
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="I84" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="40" t="n">
-        <f aca="false">SUM(J3:J62)</f>
-        <v>6025</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M62" s="41" t="n">
-        <f aca="false">SUM(M3:M61)</f>
-        <v>1925</v>
-      </c>
-      <c r="N62" s="41" t="n">
-        <f aca="false">SUM(N3:N61)</f>
-        <v>1450</v>
-      </c>
-      <c r="O62" s="41" t="n">
-        <f aca="false">SUM(O3:O61)</f>
-        <v>250</v>
-      </c>
-      <c r="P62" s="41" t="n">
-        <f aca="false">SUM(P3:P61)</f>
-        <v>800</v>
-      </c>
-      <c r="Q62" s="41" t="n">
-        <f aca="false">SUM(Q3:Q61)</f>
-        <v>750</v>
-      </c>
-      <c r="R62" s="41" t="n">
-        <f aca="false">SUM(R3:R61)</f>
-        <v>1200</v>
-      </c>
-      <c r="S62" s="41" t="n">
-        <f aca="false">SUM(M62:R62)</f>
-        <v>6375</v>
-      </c>
-      <c r="T62" s="3"/>
-      <c r="U62" s="24" t="n">
-        <f aca="false">SUM(U4:U62)</f>
-        <v>19.25</v>
-      </c>
-      <c r="V62" s="24" t="n">
-        <f aca="false">SUM(V4:V62)</f>
-        <v>14.5</v>
-      </c>
-      <c r="W62" s="24" t="n">
-        <f aca="false">SUM(W4:W62)</f>
-        <v>2.5</v>
-      </c>
-      <c r="X62" s="24" t="n">
-        <f aca="false">SUM(X4:X62)</f>
-        <v>8</v>
-      </c>
-      <c r="Y62" s="24" t="n">
-        <f aca="false">SUM(Y4:Y62)</f>
-        <v>5.5</v>
-      </c>
-      <c r="Z62" s="24" t="n">
-        <f aca="false">SUM(Z4:Z62)</f>
-        <v>12</v>
-      </c>
-      <c r="AA62" s="24" t="n">
-        <f aca="false">SUM(U62:Z62)</f>
-        <v>61.75</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="J63" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="T63" s="3"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="42"/>
+      <c r="P84" s="42"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="42"/>
+      <c r="T84" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D53:I61 D4:I49">
+  <conditionalFormatting sqref="D4:I82">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>1</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>LEN(TRIM(D4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:I53">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(D52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D52:I52">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(D52))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:I51">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>LEN(TRIM(D50))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
   <si>
     <t xml:space="preserve">Per Person</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t xml:space="preserve">Finished sensor python/c unit/integration test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote C memory poking for motors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modularized all components in python with shared object use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote functional test including sensor, imu and motor components</t>
   </si>
   <si>
     <t xml:space="preserve">Total CDR Costs</t>
@@ -782,28 +791,28 @@
   </sheetPr>
   <dimension ref="A1:AP84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B37" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
-      <selection pane="topRight" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B41" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="topRight" activeCell="I59" activeCellId="0" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="16" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="19" min="19" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="21" min="21" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="22" min="22" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="23" min="23" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="23" min="23" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="24" min="24" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="26" min="25" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="27" min="27" style="0" width="17.71"/>
@@ -1116,7 +1125,7 @@
       </c>
       <c r="AI4" s="19" t="n">
         <f aca="false">R83-AI3</f>
-        <v>750</v>
+        <v>950</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,7 +1408,7 @@
       </c>
       <c r="AI7" s="29" t="n">
         <f aca="false">Z83-AI6</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,7 +1587,7 @@
       </c>
       <c r="AI9" s="19" t="n">
         <f aca="false">SUM(AI3+AI4)</f>
-        <v>1600</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,7 +1689,7 @@
       </c>
       <c r="AI10" s="29" t="n">
         <f aca="false">SUM(AI6+AI7)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,19 +5081,27 @@
       </c>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="23"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="25" t="n">
+        <v>43206</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="23" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
       <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+      <c r="I56" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J56" s="18" t="n">
         <f aca="false">SUM(D56:I56)*100*C56</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3" t="n">
@@ -5109,7 +5126,7 @@
       </c>
       <c r="R56" s="3" t="n">
         <f aca="false">IF(I56=1,100*$C56,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
@@ -5135,23 +5152,31 @@
       </c>
       <c r="Z56" s="24" t="n">
         <f aca="false">IF(I56=1,$C56,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="23"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="25" t="n">
+        <v>43206</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="23" t="n">
+        <v>0.5</v>
+      </c>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
       <c r="H57" s="33"/>
-      <c r="I57" s="33"/>
+      <c r="I57" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J57" s="18" t="n">
         <f aca="false">SUM(D57:I57)*100*C57</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3" t="n">
@@ -5176,7 +5201,7 @@
       </c>
       <c r="R57" s="3" t="n">
         <f aca="false">IF(I57=1,100*$C57,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
@@ -5202,23 +5227,31 @@
       </c>
       <c r="Z57" s="24" t="n">
         <f aca="false">IF(I57=1,$C57,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="23"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="25" t="n">
+        <v>43206</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
-      <c r="I58" s="33"/>
+      <c r="I58" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J58" s="18" t="n">
         <f aca="false">SUM(D58:I58)*100*C58</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3" t="n">
@@ -5243,7 +5276,7 @@
       </c>
       <c r="R58" s="3" t="n">
         <f aca="false">IF(I58=1,100*$C58,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
@@ -5269,7 +5302,7 @@
       </c>
       <c r="Z58" s="24" t="n">
         <f aca="false">IF(I58=1,$C58,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA58" s="3"/>
     </row>
@@ -6519,7 +6552,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="24" t="n">
@@ -6547,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,7 +6624,7 @@
       </c>
       <c r="S78" s="4" t="n">
         <f aca="false">S83-S43</f>
-        <v>1550</v>
+        <v>1750</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="24" t="n">
@@ -6620,7 +6653,7 @@
       </c>
       <c r="AA78" s="3" t="n">
         <f aca="false">AA83-AA43</f>
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6894,11 +6927,11 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C83" s="37" t="n">
         <f aca="false">SUM(C3:C82)</f>
-        <v>60.25</v>
+        <v>63.25</v>
       </c>
       <c r="D83" s="38" t="n">
         <f aca="false">U$83</f>
@@ -6922,14 +6955,14 @@
       </c>
       <c r="I83" s="38" t="n">
         <f aca="false">Z$83</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J83" s="39" t="n">
         <f aca="false">SUM(J3:J82)</f>
-        <v>6675</v>
+        <v>6975</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M83" s="4" t="n">
         <f aca="false">SUM(M3:M82)</f>
@@ -6953,11 +6986,11 @@
       </c>
       <c r="R83" s="4" t="n">
         <f aca="false">SUM(R3:R82)</f>
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="S83" s="4" t="n">
         <f aca="false">SUM(M83:R83)</f>
-        <v>6675</v>
+        <v>6875</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="24" t="n">
@@ -6982,11 +7015,11 @@
       </c>
       <c r="Z83" s="24" t="n">
         <f aca="false">SUM(Z4:Z82)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AA83" s="24" t="n">
         <f aca="false">SUM(U83:Z83)</f>
-        <v>66.75</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
   <si>
     <t xml:space="preserve">Per Person</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve">Wrote functional test including sensor, imu and motor components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Begun initial work on web interface of rover with straight, left, right, backward, and 360 buttons</t>
   </si>
   <si>
     <t xml:space="preserve">Total CDR Costs</t>
@@ -794,7 +797,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B41" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="topRight" activeCell="I59" activeCellId="0" sqref="I59"/>
+      <selection pane="topRight" activeCell="I60" activeCellId="0" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1125,7 +1128,7 @@
       </c>
       <c r="AI4" s="19" t="n">
         <f aca="false">R83-AI3</f>
-        <v>950</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1411,7 @@
       </c>
       <c r="AI7" s="29" t="n">
         <f aca="false">Z83-AI6</f>
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1587,7 +1590,7 @@
       </c>
       <c r="AI9" s="19" t="n">
         <f aca="false">SUM(AI3+AI4)</f>
-        <v>1800</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,7 +1692,7 @@
       </c>
       <c r="AI10" s="29" t="n">
         <f aca="false">SUM(AI6+AI7)</f>
-        <v>18</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,19 +5309,27 @@
       </c>
       <c r="AA58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="23"/>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="25" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C59" s="23" t="n">
+        <v>0.75</v>
+      </c>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
       <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="I59" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J59" s="18" t="n">
         <f aca="false">SUM(D59:I59)*100*C59</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3" t="n">
@@ -5343,7 +5354,7 @@
       </c>
       <c r="R59" s="3" t="n">
         <f aca="false">IF(I59=1,100*$C59,0)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
@@ -5369,7 +5380,7 @@
       </c>
       <c r="Z59" s="24" t="n">
         <f aca="false">IF(I59=1,$C59,0)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AA59" s="3"/>
     </row>
@@ -6552,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="24" t="n">
@@ -6580,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6624,7 +6635,7 @@
       </c>
       <c r="S78" s="4" t="n">
         <f aca="false">S83-S43</f>
-        <v>1750</v>
+        <v>1825</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="24" t="n">
@@ -6653,7 +6664,7 @@
       </c>
       <c r="AA78" s="3" t="n">
         <f aca="false">AA83-AA43</f>
-        <v>17.5</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6927,11 +6938,11 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C83" s="37" t="n">
         <f aca="false">SUM(C3:C82)</f>
-        <v>63.25</v>
+        <v>64</v>
       </c>
       <c r="D83" s="38" t="n">
         <f aca="false">U$83</f>
@@ -6955,14 +6966,14 @@
       </c>
       <c r="I83" s="38" t="n">
         <f aca="false">Z$83</f>
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="J83" s="39" t="n">
         <f aca="false">SUM(J3:J82)</f>
-        <v>6975</v>
+        <v>7050</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M83" s="4" t="n">
         <f aca="false">SUM(M3:M82)</f>
@@ -6986,11 +6997,11 @@
       </c>
       <c r="R83" s="4" t="n">
         <f aca="false">SUM(R3:R82)</f>
-        <v>1800</v>
+        <v>1875</v>
       </c>
       <c r="S83" s="4" t="n">
         <f aca="false">SUM(M83:R83)</f>
-        <v>6875</v>
+        <v>6950</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="24" t="n">
@@ -7015,11 +7026,11 @@
       </c>
       <c r="Z83" s="24" t="n">
         <f aca="false">SUM(Z4:Z82)</f>
-        <v>18</v>
+        <v>18.75</v>
       </c>
       <c r="AA83" s="24" t="n">
         <f aca="false">SUM(U83:Z83)</f>
-        <v>68.75</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t xml:space="preserve">Per Person</t>
   </si>
@@ -239,6 +239,27 @@
   </si>
   <si>
     <t xml:space="preserve">Begun initial work on web interface of rover with straight, left, right, backward, and 360 buttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI - Movement Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finished encoder test bench.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED Integration and function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Led VHDL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify C function, wrapper, and functional test logic</t>
   </si>
   <si>
     <t xml:space="preserve">Total CDR Costs</t>
@@ -797,25 +818,25 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B41" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="topRight" activeCell="I60" activeCellId="0" sqref="I60"/>
+      <selection pane="topRight" activeCell="I65" activeCellId="0" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="16" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="19" min="19" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="21" min="21" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="22" min="22" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="23" min="23" style="0" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="23" min="23" style="0" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="24" min="24" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="26" min="25" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="27" min="27" style="0" width="17.71"/>
@@ -1116,19 +1137,19 @@
       </c>
       <c r="AF4" s="19" t="n">
         <f aca="false">O83-AF3</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="AG4" s="19" t="n">
         <f aca="false">P83-AG3</f>
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="AH4" s="19" t="n">
         <f aca="false">Q83-AH3</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AI4" s="19" t="n">
         <f aca="false">R83-AI3</f>
-        <v>1025</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,11 +1420,11 @@
       </c>
       <c r="AF7" s="29" t="n">
         <f aca="false">W83-AF6</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG7" s="29" t="n">
         <f aca="false">X83-AG6</f>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="AH7" s="29" t="n">
         <f aca="false">Y83-AH6</f>
@@ -1411,7 +1432,7 @@
       </c>
       <c r="AI7" s="29" t="n">
         <f aca="false">Z83-AI6</f>
-        <v>10.25</v>
+        <v>13.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1578,19 +1599,19 @@
       </c>
       <c r="AF9" s="19" t="n">
         <f aca="false">SUM(AF3+AF4)</f>
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="AG9" s="19" t="n">
         <f aca="false">SUM(AG3+AG4)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH9" s="19" t="n">
         <f aca="false">SUM(AH3+AH4)</f>
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="AI9" s="19" t="n">
         <f aca="false">SUM(AI3+AI4)</f>
-        <v>1875</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1680,11 +1701,11 @@
       </c>
       <c r="AF10" s="29" t="n">
         <f aca="false">SUM(AF6+AF7)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="AG10" s="29" t="n">
         <f aca="false">SUM(AG6+AG7)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH10" s="29" t="n">
         <f aca="false">SUM(AH6+AH7)</f>
@@ -1692,7 +1713,7 @@
       </c>
       <c r="AI10" s="29" t="n">
         <f aca="false">SUM(AI6+AI7)</f>
-        <v>18.75</v>
+        <v>21.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,7 +4955,7 @@
       </c>
       <c r="AA53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="25" t="n">
         <v>43201</v>
       </c>
@@ -5009,7 +5030,7 @@
       </c>
       <c r="AA54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="25" t="n">
         <v>43204</v>
       </c>
@@ -5054,7 +5075,7 @@
       </c>
       <c r="R55" s="3" t="n">
         <f aca="false">IF(I55=1,100*$C55,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
@@ -5080,11 +5101,11 @@
       </c>
       <c r="Z55" s="24" t="n">
         <f aca="false">IF(I55=1,$C55,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="25" t="n">
         <v>43206</v>
       </c>
@@ -5159,7 +5180,7 @@
       </c>
       <c r="AA56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="25" t="n">
         <v>43206</v>
       </c>
@@ -5234,7 +5255,7 @@
       </c>
       <c r="AA57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="25" t="n">
         <v>43206</v>
       </c>
@@ -5309,7 +5330,7 @@
       </c>
       <c r="AA58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="25" t="n">
         <v>43207</v>
       </c>
@@ -5385,18 +5406,26 @@
       <c r="AA59" s="3"/>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="25"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="25" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
+      <c r="G60" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="H60" s="33"/>
       <c r="I60" s="33"/>
       <c r="J60" s="18" t="n">
         <f aca="false">SUM(D60:I60)*100*C60</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3" t="n">
@@ -5413,7 +5442,7 @@
       </c>
       <c r="P60" s="3" t="n">
         <f aca="false">IF(G60=1,100*$C60,0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q60" s="3" t="n">
         <f aca="false">IF(H60=1,100*$C60,0)</f>
@@ -5439,7 +5468,7 @@
       </c>
       <c r="X60" s="24" t="n">
         <f aca="false">IF(G60=1,$C60,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y60" s="24" t="n">
         <f aca="false">IF(H60=1,$C60,0)</f>
@@ -5452,18 +5481,26 @@
       <c r="AA60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="25"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="25" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>75</v>
+      </c>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="H61" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="I61" s="33"/>
       <c r="J61" s="18" t="n">
         <f aca="false">SUM(D61:I61)*100*C61</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3"/>
       <c r="M61" s="3" t="n">
@@ -5484,7 +5521,7 @@
       </c>
       <c r="Q61" s="3" t="n">
         <f aca="false">IF(H61=1,100*$C61,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3" t="n">
         <f aca="false">IF(I61=1,100*$C61,0)</f>
@@ -5508,9 +5545,9 @@
         <f aca="false">IF(G61=1,$C61,0)</f>
         <v>0</v>
       </c>
-      <c r="Y61" s="24" t="n">
+      <c r="Y61" s="24" t="str">
         <f aca="false">IF(H61=1,$C61,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z61" s="24" t="n">
         <f aca="false">IF(I61=1,$C61,0)</f>
@@ -5519,18 +5556,26 @@
       <c r="AA61" s="3"/>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="25" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
+      <c r="F62" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="G62" s="33"/>
       <c r="H62" s="33"/>
       <c r="I62" s="33"/>
       <c r="J62" s="18" t="n">
         <f aca="false">SUM(D62:I62)*100*C62</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3" t="n">
@@ -5543,7 +5588,7 @@
       </c>
       <c r="O62" s="3" t="n">
         <f aca="false">IF(F62=1,100*$C62,0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P62" s="3" t="n">
         <f aca="false">IF(G62=1,100*$C62,0)</f>
@@ -5569,7 +5614,7 @@
       </c>
       <c r="W62" s="24" t="n">
         <f aca="false">IF(F62=1,$C62,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X62" s="24" t="n">
         <f aca="false">IF(G62=1,$C62,0)</f>
@@ -5586,18 +5631,26 @@
       <c r="AA62" s="3"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="25" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>78</v>
+      </c>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
+      <c r="F63" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="G63" s="33"/>
       <c r="H63" s="33"/>
       <c r="I63" s="33"/>
       <c r="J63" s="18" t="n">
         <f aca="false">SUM(D63:I63)*100*C63</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L63" s="3"/>
       <c r="M63" s="3" t="n">
@@ -5610,7 +5663,7 @@
       </c>
       <c r="O63" s="3" t="n">
         <f aca="false">IF(F63=1,100*$C63,0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P63" s="3" t="n">
         <f aca="false">IF(G63=1,100*$C63,0)</f>
@@ -5634,9 +5687,9 @@
         <f aca="false">IF(E63=1,$C63,0)</f>
         <v>0</v>
       </c>
-      <c r="W63" s="24" t="n">
+      <c r="W63" s="24" t="str">
         <f aca="false">IF(F63=1,$C63,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X63" s="24" t="n">
         <f aca="false">IF(G63=1,$C63,0)</f>
@@ -5652,19 +5705,27 @@
       </c>
       <c r="AA63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="23"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="25" t="n">
+        <v>43207</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="23" t="n">
+        <v>2</v>
+      </c>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
       <c r="H64" s="33"/>
-      <c r="I64" s="33"/>
+      <c r="I64" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J64" s="18" t="n">
         <f aca="false">SUM(D64:I64)*100*C64</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3" t="n">
@@ -5689,7 +5750,7 @@
       </c>
       <c r="R64" s="3" t="n">
         <f aca="false">IF(I64=1,100*$C64,0)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
@@ -5715,7 +5776,7 @@
       </c>
       <c r="Z64" s="24" t="n">
         <f aca="false">IF(I64=1,$C64,0)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA64" s="3"/>
     </row>
@@ -6563,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="24" t="n">
@@ -6591,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6635,7 +6696,7 @@
       </c>
       <c r="S78" s="4" t="n">
         <f aca="false">S83-S43</f>
-        <v>1825</v>
+        <v>2825</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="24" t="n">
@@ -6664,7 +6725,7 @@
       </c>
       <c r="AA78" s="3" t="n">
         <f aca="false">AA83-AA43</f>
-        <v>18.25</v>
+        <v>25.25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6938,11 +6999,11 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="36" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C83" s="37" t="n">
         <f aca="false">SUM(C3:C82)</f>
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D83" s="38" t="n">
         <f aca="false">U$83</f>
@@ -6954,11 +7015,11 @@
       </c>
       <c r="F83" s="38" t="n">
         <f aca="false">W$83</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G83" s="38" t="n">
         <f aca="false">X$83</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H83" s="38" t="n">
         <f aca="false">Y$83</f>
@@ -6966,14 +7027,14 @@
       </c>
       <c r="I83" s="38" t="n">
         <f aca="false">Z$83</f>
-        <v>18.75</v>
+        <v>21.75</v>
       </c>
       <c r="J83" s="39" t="n">
         <f aca="false">SUM(J3:J82)</f>
-        <v>7050</v>
+        <v>7950</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M83" s="4" t="n">
         <f aca="false">SUM(M3:M82)</f>
@@ -6985,23 +7046,23 @@
       </c>
       <c r="O83" s="4" t="n">
         <f aca="false">SUM(O3:O82)</f>
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="P83" s="4" t="n">
         <f aca="false">SUM(P3:P82)</f>
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="Q83" s="4" t="n">
         <f aca="false">SUM(Q3:Q82)</f>
-        <v>650</v>
+        <v>750</v>
       </c>
       <c r="R83" s="4" t="n">
         <f aca="false">SUM(R3:R82)</f>
-        <v>1875</v>
+        <v>2175</v>
       </c>
       <c r="S83" s="4" t="n">
         <f aca="false">SUM(M83:R83)</f>
-        <v>6950</v>
+        <v>7950</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="24" t="n">
@@ -7014,11 +7075,11 @@
       </c>
       <c r="W83" s="24" t="n">
         <f aca="false">SUM(W4:W82)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="X83" s="24" t="n">
         <f aca="false">SUM(X4:X82)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Y83" s="24" t="n">
         <f aca="false">SUM(Y4:Y82)</f>
@@ -7026,11 +7087,11 @@
       </c>
       <c r="Z83" s="24" t="n">
         <f aca="false">SUM(Z4:Z82)</f>
-        <v>18.75</v>
+        <v>21.75</v>
       </c>
       <c r="AA83" s="24" t="n">
         <f aca="false">SUM(U83:Z83)</f>
-        <v>69.5</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
   <si>
     <t xml:space="preserve">Per Person</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t xml:space="preserve">Verify C function, wrapper, and functional test logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactored C and python wrapper functions</t>
   </si>
   <si>
     <t xml:space="preserve">Total CDR Costs</t>
@@ -818,7 +821,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B41" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="topRight" activeCell="I65" activeCellId="0" sqref="I65"/>
+      <selection pane="topRight" activeCell="I66" activeCellId="0" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -826,17 +829,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="4" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="15" min="13" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="17" min="16" style="0" width="8.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="18" min="18" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="1" max="19" min="19" style="0" width="17.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="21" min="21" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="22" min="22" style="0" width="6"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="23" min="23" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="23" min="23" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="24" min="24" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="26" min="25" style="0" width="6"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="1" max="27" min="27" style="0" width="17.71"/>
@@ -1149,7 +1152,7 @@
       </c>
       <c r="AI4" s="19" t="n">
         <f aca="false">R83-AI3</f>
-        <v>1325</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,7 +1435,7 @@
       </c>
       <c r="AI7" s="29" t="n">
         <f aca="false">Z83-AI6</f>
-        <v>13.25</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1611,7 +1614,7 @@
       </c>
       <c r="AI9" s="19" t="n">
         <f aca="false">SUM(AI3+AI4)</f>
-        <v>2175</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1713,7 +1716,7 @@
       </c>
       <c r="AI10" s="29" t="n">
         <f aca="false">SUM(AI6+AI7)</f>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,19 +5783,27 @@
       </c>
       <c r="AA64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="23"/>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="25" t="n">
+        <v>43208</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="23" t="n">
+        <v>1</v>
+      </c>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
       <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="I65" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J65" s="18" t="n">
         <f aca="false">SUM(D65:I65)*100*C65</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L65" s="3"/>
       <c r="M65" s="3" t="n">
@@ -5817,7 +5828,7 @@
       </c>
       <c r="R65" s="3" t="n">
         <f aca="false">IF(I65=1,100*$C65,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
@@ -5843,7 +5854,7 @@
       </c>
       <c r="Z65" s="24" t="n">
         <f aca="false">IF(I65=1,$C65,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA65" s="3"/>
     </row>
@@ -6624,7 +6635,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="24" t="n">
@@ -6652,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6696,7 +6707,7 @@
       </c>
       <c r="S78" s="4" t="n">
         <f aca="false">S83-S43</f>
-        <v>2825</v>
+        <v>2925</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="24" t="n">
@@ -6725,7 +6736,7 @@
       </c>
       <c r="AA78" s="3" t="n">
         <f aca="false">AA83-AA43</f>
-        <v>25.25</v>
+        <v>26.25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6999,11 +7010,11 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C83" s="37" t="n">
         <f aca="false">SUM(C3:C82)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D83" s="38" t="n">
         <f aca="false">U$83</f>
@@ -7027,14 +7038,14 @@
       </c>
       <c r="I83" s="38" t="n">
         <f aca="false">Z$83</f>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="J83" s="39" t="n">
         <f aca="false">SUM(J3:J82)</f>
-        <v>7950</v>
+        <v>8050</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M83" s="4" t="n">
         <f aca="false">SUM(M3:M82)</f>
@@ -7058,11 +7069,11 @@
       </c>
       <c r="R83" s="4" t="n">
         <f aca="false">SUM(R3:R82)</f>
-        <v>2175</v>
+        <v>2275</v>
       </c>
       <c r="S83" s="4" t="n">
         <f aca="false">SUM(M83:R83)</f>
-        <v>7950</v>
+        <v>8050</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="24" t="n">
@@ -7087,11 +7098,11 @@
       </c>
       <c r="Z83" s="24" t="n">
         <f aca="false">SUM(Z4:Z82)</f>
-        <v>21.75</v>
+        <v>22.75</v>
       </c>
       <c r="AA83" s="24" t="n">
         <f aca="false">SUM(U83:Z83)</f>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
+++ b/team_folder/newFolder/Project Management/Logging/Burn Report.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
   <si>
     <t xml:space="preserve">Per Person</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t xml:space="preserve">Refactored C and python wrapper functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted C offsets, tested wk 13 blink axi on rover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documented diagrams of functional tests and web interface</t>
   </si>
   <si>
     <t xml:space="preserve">Total CDR Costs</t>
@@ -821,7 +827,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B41" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
-      <selection pane="topRight" activeCell="I66" activeCellId="0" sqref="I66"/>
+      <selection pane="topRight" activeCell="I68" activeCellId="0" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="1"/>
@@ -1152,7 +1158,7 @@
       </c>
       <c r="AI4" s="19" t="n">
         <f aca="false">R83-AI3</f>
-        <v>1425</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,7 +1441,7 @@
       </c>
       <c r="AI7" s="29" t="n">
         <f aca="false">Z83-AI6</f>
-        <v>14.25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1614,7 +1620,7 @@
       </c>
       <c r="AI9" s="19" t="n">
         <f aca="false">SUM(AI3+AI4)</f>
-        <v>2275</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1716,7 +1722,7 @@
       </c>
       <c r="AI10" s="29" t="n">
         <f aca="false">SUM(AI6+AI7)</f>
-        <v>22.75</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,19 +5864,27 @@
       </c>
       <c r="AA65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="23"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="25" t="n">
+        <v>43208</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="23" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
       <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
+      <c r="I66" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J66" s="18" t="n">
         <f aca="false">SUM(D66:I66)*100*C66</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="L66" s="3"/>
       <c r="M66" s="3" t="n">
@@ -5895,7 +5909,7 @@
       </c>
       <c r="R66" s="3" t="n">
         <f aca="false">IF(I66=1,100*$C66,0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
@@ -5921,23 +5935,31 @@
       </c>
       <c r="Z66" s="24" t="n">
         <f aca="false">IF(I66=1,$C66,0)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="23"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="25" t="n">
+        <v>43208</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="23" t="n">
+        <v>0.25</v>
+      </c>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
       <c r="H67" s="33"/>
-      <c r="I67" s="33"/>
+      <c r="I67" s="33" t="n">
+        <v>1</v>
+      </c>
       <c r="J67" s="18" t="n">
         <f aca="false">SUM(D67:I67)*100*C67</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L67" s="3"/>
       <c r="M67" s="3" t="n">
@@ -5962,7 +5984,7 @@
       </c>
       <c r="R67" s="3" t="n">
         <f aca="false">IF(I67=1,100*$C67,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
@@ -5988,7 +6010,7 @@
       </c>
       <c r="Z67" s="24" t="n">
         <f aca="false">IF(I67=1,$C67,0)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA67" s="4"/>
     </row>
@@ -6635,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="S77" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="T77" s="3"/>
       <c r="U77" s="24" t="n">
@@ -6663,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="AA77" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6707,7 +6729,7 @@
       </c>
       <c r="S78" s="4" t="n">
         <f aca="false">S83-S43</f>
-        <v>2925</v>
+        <v>3100</v>
       </c>
       <c r="T78" s="3"/>
       <c r="U78" s="24" t="n">
@@ -6736,7 +6758,7 @@
       </c>
       <c r="AA78" s="3" t="n">
         <f aca="false">AA83-AA43</f>
-        <v>26.25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7010,11 +7032,11 @@
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35"/>
       <c r="B83" s="36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C83" s="37" t="n">
         <f aca="false">SUM(C3:C82)</f>
-        <v>71</v>
+        <v>72.75</v>
       </c>
       <c r="D83" s="38" t="n">
         <f aca="false">U$83</f>
@@ -7038,14 +7060,14 @@
       </c>
       <c r="I83" s="38" t="n">
         <f aca="false">Z$83</f>
-        <v>22.75</v>
+        <v>24.5</v>
       </c>
       <c r="J83" s="39" t="n">
         <f aca="false">SUM(J3:J82)</f>
-        <v>8050</v>
+        <v>8225</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M83" s="4" t="n">
         <f aca="false">SUM(M3:M82)</f>
@@ -7069,11 +7091,11 @@
       </c>
       <c r="R83" s="4" t="n">
         <f aca="false">SUM(R3:R82)</f>
-        <v>2275</v>
+        <v>2450</v>
       </c>
       <c r="S83" s="4" t="n">
         <f aca="false">SUM(M83:R83)</f>
-        <v>8050</v>
+        <v>8225</v>
       </c>
       <c r="T83" s="3"/>
       <c r="U83" s="24" t="n">
@@ -7098,11 +7120,11 @@
       </c>
       <c r="Z83" s="24" t="n">
         <f aca="false">SUM(Z4:Z82)</f>
-        <v>22.75</v>
+        <v>24.5</v>
       </c>
       <c r="AA83" s="24" t="n">
         <f aca="false">SUM(U83:Z83)</f>
-        <v>77.5</v>
+        <v>79.25</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
